--- a/data/IEEE_9/ieee18/ieee18_2020.xlsx
+++ b/data/IEEE_9/ieee18/ieee18_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADEA16B-8B3A-4A77-81D0-808D9C181C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8B228B-43B4-4323-B47E-9D9B7D8F96B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="2970" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="1200" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -850,150 +850,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6.0487066055386949</v>
+            <v>2.0162355351795651</v>
           </cell>
           <cell r="C4">
-            <v>5.6872129096859974</v>
+            <v>1.8957376365619993</v>
           </cell>
           <cell r="D4">
-            <v>5.5033791112452333</v>
+            <v>1.8344597037484112</v>
           </cell>
           <cell r="E4">
-            <v>5.618498667186536</v>
+            <v>1.8728328890621788</v>
           </cell>
           <cell r="F4">
-            <v>5.671353713704959</v>
+            <v>1.8904512379016531</v>
           </cell>
           <cell r="G4">
-            <v>6.4843960797999847</v>
+            <v>2.1614653599333282</v>
           </cell>
           <cell r="H4">
-            <v>10.472313713703759</v>
+            <v>3.4907712379012534</v>
           </cell>
           <cell r="I4">
-            <v>12.278325193139912</v>
+            <v>4.0927750643799703</v>
           </cell>
           <cell r="J4">
-            <v>12.827986990440676</v>
+            <v>4.2759956634802263</v>
           </cell>
           <cell r="K4">
-            <v>12.422568082432806</v>
+            <v>4.1408560274776018</v>
           </cell>
           <cell r="L4">
-            <v>11.965978889272002</v>
+            <v>3.988659629757334</v>
           </cell>
           <cell r="M4">
-            <v>12.729318501555225</v>
+            <v>4.2431061671850756</v>
           </cell>
           <cell r="N4">
-            <v>11.800703911652983</v>
+            <v>3.9335679705509947</v>
           </cell>
           <cell r="O4">
-            <v>11.236314002951865</v>
+            <v>3.7454380009839552</v>
           </cell>
           <cell r="P4">
-            <v>9.7181481264834524</v>
+            <v>3.2393827088278178</v>
           </cell>
           <cell r="Q4">
-            <v>9.6780088765177563</v>
+            <v>3.2260029588392523</v>
           </cell>
           <cell r="R4">
-            <v>10.084493948174662</v>
+            <v>3.3614979827248876</v>
           </cell>
           <cell r="S4">
-            <v>10.891473157959169</v>
+            <v>3.6304910526530567</v>
           </cell>
           <cell r="T4">
-            <v>9.9529203295469237</v>
+            <v>3.3176401098489752</v>
           </cell>
           <cell r="U4">
-            <v>10.342862218507397</v>
+            <v>3.4476207395024656</v>
           </cell>
           <cell r="V4">
-            <v>10.042352165967481</v>
+            <v>3.3474507219891607</v>
           </cell>
           <cell r="W4">
-            <v>9.4439593693336885</v>
+            <v>3.147986456444563</v>
           </cell>
           <cell r="X4">
-            <v>7.8453431654356125</v>
+            <v>2.6151143884785375</v>
           </cell>
           <cell r="Y4">
-            <v>6.919527102990215</v>
+            <v>2.3065090343300718</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>4.9618101297338013</v>
+            <v>1.6539367099112672</v>
           </cell>
           <cell r="C5">
-            <v>3.2236950162989122</v>
+            <v>1.0745650054329707</v>
           </cell>
           <cell r="D5">
-            <v>3.225217814549457</v>
+            <v>1.0750726048498191</v>
           </cell>
           <cell r="E5">
-            <v>2.8732017282895228</v>
+            <v>0.95773390942984105</v>
           </cell>
           <cell r="F5">
-            <v>3.0260541192244501</v>
+            <v>1.0086847064081501</v>
           </cell>
           <cell r="G5">
-            <v>6.1746263786509745</v>
+            <v>2.0582087928836583</v>
           </cell>
           <cell r="H5">
-            <v>12.381539132854572</v>
+            <v>4.1271797109515242</v>
           </cell>
           <cell r="I5">
-            <v>15.412482956870159</v>
+            <v>5.1374943189567199</v>
           </cell>
           <cell r="J5">
-            <v>16.989271469521995</v>
+            <v>5.6630904898406653</v>
           </cell>
           <cell r="K5">
-            <v>15.910174596666277</v>
+            <v>5.3033915322220926</v>
           </cell>
           <cell r="L5">
-            <v>15.772762307653869</v>
+            <v>5.2575874358846235</v>
           </cell>
           <cell r="M5">
-            <v>14.659745896279833</v>
+            <v>4.8865819654266121</v>
           </cell>
           <cell r="N5">
-            <v>14.280988282993036</v>
+            <v>4.7603294276643462</v>
           </cell>
           <cell r="O5">
-            <v>13.450197538751008</v>
+            <v>4.4833991795836692</v>
           </cell>
           <cell r="P5">
-            <v>12.838789931832492</v>
+            <v>4.2795966439441644</v>
           </cell>
           <cell r="Q5">
-            <v>13.13123098830804</v>
+            <v>4.3770769961026801</v>
           </cell>
           <cell r="R5">
-            <v>16.573114306911467</v>
+            <v>5.524371435637156</v>
           </cell>
           <cell r="S5">
-            <v>24.996923877088339</v>
+            <v>8.3323079590294462</v>
           </cell>
           <cell r="T5">
-            <v>22.471933391935696</v>
+            <v>7.4906444639785654</v>
           </cell>
           <cell r="U5">
-            <v>19.017439534851391</v>
+            <v>6.3391465116171313</v>
           </cell>
           <cell r="V5">
-            <v>18.386680923178769</v>
+            <v>6.12889364105959</v>
           </cell>
           <cell r="W5">
-            <v>16.367860592676998</v>
+            <v>5.4559535308923328</v>
           </cell>
           <cell r="X5">
-            <v>12.249560936288534</v>
+            <v>4.0831869787628445</v>
           </cell>
           <cell r="Y5">
-            <v>9.5225783664619517</v>
+            <v>3.1741927888206507</v>
           </cell>
         </row>
         <row r="6">
@@ -1962,150 +1962,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6.1696807376494682</v>
+            <v>2.0565602458831562</v>
           </cell>
           <cell r="C4">
-            <v>5.8009571678797167</v>
+            <v>1.9336523892932391</v>
           </cell>
           <cell r="D4">
-            <v>5.4483453201327814</v>
+            <v>1.8161151067109271</v>
           </cell>
           <cell r="E4">
-            <v>5.7308686405302662</v>
+            <v>1.9102895468434222</v>
           </cell>
           <cell r="F4">
-            <v>5.5579266394308604</v>
+            <v>1.8526422131436202</v>
           </cell>
           <cell r="G4">
-            <v>6.3547081582039846</v>
+            <v>2.118236052734662</v>
           </cell>
           <cell r="H4">
-            <v>10.577036850840798</v>
+            <v>3.5256789502802661</v>
           </cell>
           <cell r="I4">
-            <v>12.27832519313991</v>
+            <v>4.0927750643799703</v>
           </cell>
           <cell r="J4">
-            <v>12.571427250631864</v>
+            <v>4.1904757502106218</v>
           </cell>
           <cell r="K4">
-            <v>12.298342401608478</v>
+            <v>4.0994474672028263</v>
           </cell>
           <cell r="L4">
-            <v>11.965978889272002</v>
+            <v>3.988659629757334</v>
           </cell>
           <cell r="M4">
-            <v>12.474732131524121</v>
+            <v>4.1582440438413739</v>
           </cell>
           <cell r="N4">
-            <v>11.564689833419923</v>
+            <v>3.8548966111399747</v>
           </cell>
           <cell r="O4">
-            <v>11.236314002951865</v>
+            <v>3.7454380009839552</v>
           </cell>
           <cell r="P4">
-            <v>9.7181481264834524</v>
+            <v>3.2393827088278178</v>
           </cell>
           <cell r="Q4">
-            <v>9.7747889652829336</v>
+            <v>3.2582629884276448</v>
           </cell>
           <cell r="R4">
-            <v>9.8828040692111685</v>
+            <v>3.2942680230703898</v>
           </cell>
           <cell r="S4">
-            <v>11.000387889538763</v>
+            <v>3.6667959631795877</v>
           </cell>
           <cell r="T4">
-            <v>9.7538619229559878</v>
+            <v>3.2512873076519959</v>
           </cell>
           <cell r="U4">
-            <v>10.342862218507397</v>
+            <v>3.4476207395024656</v>
           </cell>
           <cell r="V4">
-            <v>9.9419286443078079</v>
+            <v>3.3139762147692693</v>
           </cell>
           <cell r="W4">
-            <v>9.2550801819470152</v>
+            <v>3.0850267273156717</v>
           </cell>
           <cell r="X4">
-            <v>7.6884363021268998</v>
+            <v>2.562812100708967</v>
           </cell>
           <cell r="Y4">
-            <v>7.0579176450500185</v>
+            <v>2.3526392150166728</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>4.9121920284364622</v>
+            <v>1.6373973428121542</v>
           </cell>
           <cell r="C5">
-            <v>3.2236950162989126</v>
+            <v>1.074565005432971</v>
           </cell>
           <cell r="D5">
-            <v>3.1929656364039625</v>
+            <v>1.0643218788013209</v>
           </cell>
           <cell r="E5">
-            <v>2.8732017282895228</v>
+            <v>0.95773390942984105</v>
           </cell>
           <cell r="F5">
-            <v>3.0865752016089387</v>
+            <v>1.0288584005363131</v>
           </cell>
           <cell r="G5">
-            <v>6.2363726424374839</v>
+            <v>2.0787908808124946</v>
           </cell>
           <cell r="H5">
-            <v>12.13390835019748</v>
+            <v>4.0446361167324936</v>
           </cell>
           <cell r="I5">
-            <v>15.104233297732755</v>
+            <v>5.0347444325775852</v>
           </cell>
           <cell r="J5">
-            <v>17.159164184217214</v>
+            <v>5.7197213947390715</v>
           </cell>
           <cell r="K5">
-            <v>16.228378088599602</v>
+            <v>5.4094593628665351</v>
           </cell>
           <cell r="L5">
-            <v>16.088217553806945</v>
+            <v>5.3627391846023151</v>
           </cell>
           <cell r="M5">
-            <v>14.366550978354237</v>
+            <v>4.7888503261180793</v>
           </cell>
           <cell r="N5">
-            <v>14.566608048652895</v>
+            <v>4.8555360162176324</v>
           </cell>
           <cell r="O5">
-            <v>13.450197538751008</v>
+            <v>4.4833991795836692</v>
           </cell>
           <cell r="P5">
-            <v>13.095565730469142</v>
+            <v>4.365188576823047</v>
           </cell>
           <cell r="Q5">
-            <v>12.999918678424958</v>
+            <v>4.3333062261416533</v>
           </cell>
           <cell r="R5">
-            <v>16.241652020773241</v>
+            <v>5.4138840069244134</v>
           </cell>
           <cell r="S5">
-            <v>24.496985399546571</v>
+            <v>8.1656617998488574</v>
           </cell>
           <cell r="T5">
-            <v>22.02249472409698</v>
+            <v>7.3408315746989938</v>
           </cell>
           <cell r="U5">
-            <v>19.017439534851391</v>
+            <v>6.3391465116171313</v>
           </cell>
           <cell r="V5">
-            <v>18.754414541642344</v>
+            <v>6.2514715138807819</v>
           </cell>
           <cell r="W5">
-            <v>16.367860592676998</v>
+            <v>5.4559535308923328</v>
           </cell>
           <cell r="X5">
-            <v>12.372056545651418</v>
+            <v>4.124018848550473</v>
           </cell>
           <cell r="Y5">
-            <v>9.713029933791189</v>
+            <v>3.2376766445970633</v>
           </cell>
         </row>
         <row r="6">
@@ -3074,150 +3074,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6.0487066055386949</v>
+            <v>2.0162355351795651</v>
           </cell>
           <cell r="C4">
-            <v>5.5734686514922771</v>
+            <v>1.8578228838307591</v>
           </cell>
           <cell r="D4">
-            <v>5.4483453201327814</v>
+            <v>1.8161151067109271</v>
           </cell>
           <cell r="E4">
-            <v>5.6746836538584011</v>
+            <v>1.8915612179528005</v>
           </cell>
           <cell r="F4">
-            <v>5.7280672508420087</v>
+            <v>1.9093557502806697</v>
           </cell>
           <cell r="G4">
-            <v>6.3547081582039846</v>
+            <v>2.118236052734662</v>
           </cell>
           <cell r="H4">
-            <v>10.262867439429685</v>
+            <v>3.4209558131432289</v>
           </cell>
           <cell r="I4">
-            <v>12.27832519313991</v>
+            <v>4.0927750643799703</v>
           </cell>
           <cell r="J4">
-            <v>12.699707120536269</v>
+            <v>4.2332357068454236</v>
           </cell>
           <cell r="K4">
-            <v>12.17411672078415</v>
+            <v>4.0580389069280498</v>
           </cell>
           <cell r="L4">
-            <v>11.965978889272002</v>
+            <v>3.988659629757334</v>
           </cell>
           <cell r="M4">
-            <v>12.474732131524121</v>
+            <v>4.1582440438413739</v>
           </cell>
           <cell r="N4">
-            <v>11.564689833419923</v>
+            <v>3.8548966111399747</v>
           </cell>
           <cell r="O4">
-            <v>11.348677142981382</v>
+            <v>3.7828923809937942</v>
           </cell>
           <cell r="P4">
-            <v>9.8153296077482874</v>
+            <v>3.271776535916096</v>
           </cell>
           <cell r="Q4">
-            <v>9.8715690540481109</v>
+            <v>3.2905230180160374</v>
           </cell>
           <cell r="R4">
-            <v>9.8828040692111685</v>
+            <v>3.2942680230703898</v>
           </cell>
           <cell r="S4">
-            <v>10.673643694799987</v>
+            <v>3.5578812315999957</v>
           </cell>
           <cell r="T4">
-            <v>10.151978736137863</v>
+            <v>3.3839929120459549</v>
           </cell>
           <cell r="U4">
-            <v>10.549719462877544</v>
+            <v>3.5165731542925149</v>
           </cell>
           <cell r="V4">
-            <v>10.042352165967481</v>
+            <v>3.3474507219891607</v>
           </cell>
           <cell r="W4">
-            <v>9.5383989630270243</v>
+            <v>3.1794663210090084</v>
           </cell>
           <cell r="X4">
-            <v>7.6884363021268998</v>
+            <v>2.562812100708967</v>
           </cell>
           <cell r="Y4">
-            <v>6.919527102990215</v>
+            <v>2.3065090343300718</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>4.9121920284364622</v>
+            <v>1.6373973428121542</v>
           </cell>
           <cell r="C5">
-            <v>3.28816891662489</v>
+            <v>1.0960563055416301</v>
           </cell>
           <cell r="D5">
-            <v>3.1929656364039625</v>
+            <v>1.0643218788013209</v>
           </cell>
           <cell r="E5">
-            <v>2.8157376937237326</v>
+            <v>0.93857923124124421</v>
           </cell>
           <cell r="F5">
-            <v>3.0865752016089387</v>
+            <v>1.0288584005363131</v>
           </cell>
           <cell r="G5">
-            <v>6.0511338510779549</v>
+            <v>2.0170446170259848</v>
           </cell>
           <cell r="H5">
-            <v>12.629169915511664</v>
+            <v>4.2097233051705549</v>
           </cell>
           <cell r="I5">
-            <v>15.720732616007561</v>
+            <v>5.2402442053358547</v>
           </cell>
           <cell r="J5">
-            <v>17.159164184217214</v>
+            <v>5.7197213947390715</v>
           </cell>
           <cell r="K5">
-            <v>15.910174596666277</v>
+            <v>5.3033915322220926</v>
           </cell>
           <cell r="L5">
-            <v>15.772762307653869</v>
+            <v>5.2575874358846235</v>
           </cell>
           <cell r="M5">
-            <v>14.366550978354237</v>
+            <v>4.7888503261180793</v>
           </cell>
           <cell r="N5">
-            <v>14.566608048652895</v>
+            <v>4.8555360162176324</v>
           </cell>
           <cell r="O5">
-            <v>13.181193587975985</v>
+            <v>4.3937311959919958</v>
           </cell>
           <cell r="P5">
-            <v>13.095565730469142</v>
+            <v>4.365188576823047</v>
           </cell>
           <cell r="Q5">
-            <v>13.13123098830804</v>
+            <v>4.3770769961026801</v>
           </cell>
           <cell r="R5">
-            <v>16.407383163842354</v>
+            <v>5.4691277212807847</v>
           </cell>
           <cell r="S5">
-            <v>25.246893115859223</v>
+            <v>8.4156310386197415</v>
           </cell>
           <cell r="T5">
-            <v>22.696652725855053</v>
+            <v>7.5655509086183512</v>
           </cell>
           <cell r="U5">
-            <v>18.637090744154364</v>
+            <v>6.2123635813847882</v>
           </cell>
           <cell r="V5">
-            <v>18.386680923178766</v>
+            <v>6.1288936410595891</v>
           </cell>
           <cell r="W5">
-            <v>16.204181986750225</v>
+            <v>5.4013939955834092</v>
           </cell>
           <cell r="X5">
-            <v>12.494552155014304</v>
+            <v>4.1648507183381014</v>
           </cell>
           <cell r="Y5">
-            <v>9.713029933791189</v>
+            <v>3.2376766445970633</v>
           </cell>
         </row>
         <row r="6">
@@ -4186,150 +4186,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-6.954771800200569</v>
+            <v>-2.3182572667335228</v>
           </cell>
           <cell r="C4">
-            <v>-7.5042189567904041</v>
+            <v>-2.5014063189301345</v>
           </cell>
           <cell r="D4">
-            <v>-7.6418628288958113</v>
+            <v>-2.5472876096319368</v>
           </cell>
           <cell r="E4">
-            <v>-7.5396654086311381</v>
+            <v>-2.5132218028770459</v>
           </cell>
           <cell r="F4">
-            <v>-7.5459363495712815</v>
+            <v>-2.5153121165237602</v>
           </cell>
           <cell r="G4">
-            <v>-6.3011799243863589</v>
+            <v>-2.1003933081287864</v>
           </cell>
           <cell r="H4">
-            <v>-0.23463717064589615</v>
+            <v>-7.8212390215298716E-2</v>
           </cell>
           <cell r="I4">
-            <v>3.2486768469456391</v>
+            <v>1.082892282315213</v>
           </cell>
           <cell r="J4">
-            <v>4.140499362620039</v>
+            <v>1.3801664542066798</v>
           </cell>
           <cell r="K4">
-            <v>2.8843695378806329</v>
+            <v>0.96145651262687759</v>
           </cell>
           <cell r="L4">
-            <v>1.7029981313714333</v>
+            <v>0.56766604379047769</v>
           </cell>
           <cell r="M4">
-            <v>3.3779691589210756</v>
+            <v>1.1259897196403585</v>
           </cell>
           <cell r="N4">
-            <v>2.1299783025933312</v>
+            <v>0.7099927675311104</v>
           </cell>
           <cell r="O4">
-            <v>0.64622091428805362</v>
+            <v>0.21540697142935122</v>
           </cell>
           <cell r="P4">
-            <v>-2.556601237368485</v>
+            <v>-0.85220041245616174</v>
           </cell>
           <cell r="Q4">
-            <v>-2.5576891613313002</v>
+            <v>-0.85256305377710007</v>
           </cell>
           <cell r="R4">
-            <v>-2.106918535531022</v>
+            <v>-0.70230617851034061</v>
           </cell>
           <cell r="S4">
-            <v>-1.0628978510459313</v>
+            <v>-0.35429928368197711</v>
           </cell>
           <cell r="T4">
-            <v>-2.5905587750561829</v>
+            <v>-0.86351959168539427</v>
           </cell>
           <cell r="U4">
-            <v>-1.476028160832531</v>
+            <v>-0.49200938694417695</v>
           </cell>
           <cell r="V4">
-            <v>-2.0265079057684314</v>
+            <v>-0.67550263525614385</v>
           </cell>
           <cell r="W4">
-            <v>-3.3611978342963007</v>
+            <v>-1.120399278098767</v>
           </cell>
           <cell r="X4">
-            <v>-5.3102289274897752</v>
+            <v>-1.7700763091632583</v>
           </cell>
           <cell r="Y4">
-            <v>-5.9943887127470008</v>
+            <v>-1.9981295709156668</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>-18.476151684205036</v>
+            <v>-6.1587172280683458</v>
           </cell>
           <cell r="C5">
-            <v>-18.659397915211265</v>
+            <v>-6.2197993050704214</v>
           </cell>
           <cell r="D5">
-            <v>-18.849788669908015</v>
+            <v>-6.2832628899693388</v>
           </cell>
           <cell r="E5">
-            <v>-19.014816751276829</v>
+            <v>-6.3382722504256099</v>
           </cell>
           <cell r="F5">
-            <v>-19.099475370684214</v>
+            <v>-6.3664917902280713</v>
           </cell>
           <cell r="G5">
-            <v>-17.46169232980893</v>
+            <v>-5.8205641099363108</v>
           </cell>
           <cell r="H5">
-            <v>-15.14987697264668</v>
+            <v>-5.0499589908822271</v>
           </cell>
           <cell r="I5">
-            <v>-13.831797221896998</v>
+            <v>-4.610599073965667</v>
           </cell>
           <cell r="J5">
-            <v>-14.23686831156234</v>
+            <v>-4.7456227705207796</v>
           </cell>
           <cell r="K5">
-            <v>-15.771763010190293</v>
+            <v>-5.2572543367300977</v>
           </cell>
           <cell r="L5">
-            <v>-16.822299251627335</v>
+            <v>-5.6074330838757787</v>
           </cell>
           <cell r="M5">
-            <v>-17.812108327606321</v>
+            <v>-5.9373694425354406</v>
           </cell>
           <cell r="N5">
-            <v>-17.83318055757691</v>
+            <v>-5.9443935191923041</v>
           </cell>
           <cell r="O5">
-            <v>-18.161097606714971</v>
+            <v>-6.0536992022383247</v>
           </cell>
           <cell r="P5">
-            <v>-18.320766009404505</v>
+            <v>-6.1069220031348355</v>
           </cell>
           <cell r="Q5">
-            <v>-17.774242737819968</v>
+            <v>-5.9247475792733226</v>
           </cell>
           <cell r="R5">
-            <v>-15.047000846557575</v>
+            <v>-5.015666948852525</v>
           </cell>
           <cell r="S5">
-            <v>-8.9681222133645822</v>
+            <v>-2.9893740711215275</v>
           </cell>
           <cell r="T5">
-            <v>-11.567489218133694</v>
+            <v>-3.855829739377898</v>
           </cell>
           <cell r="U5">
-            <v>-14.031476757529406</v>
+            <v>-4.6771589191764695</v>
           </cell>
           <cell r="V5">
-            <v>-15.105230129137865</v>
+            <v>-5.0350767097126221</v>
           </cell>
           <cell r="W5">
-            <v>-15.980728754935573</v>
+            <v>-5.3269095849785248</v>
           </cell>
           <cell r="X5">
-            <v>-16.893021163374915</v>
+            <v>-5.6310070544583057</v>
           </cell>
           <cell r="Y5">
-            <v>-16.974820558803561</v>
+            <v>-5.6582735196011864</v>
           </cell>
         </row>
         <row r="6">
@@ -5298,150 +5298,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-7.0243195182025735</v>
+            <v>-2.341439839400858</v>
           </cell>
           <cell r="C4">
-            <v>-7.5042189567904032</v>
+            <v>-2.5014063189301341</v>
           </cell>
           <cell r="D4">
-            <v>-7.7182814571847693</v>
+            <v>-2.5727604857282564</v>
           </cell>
           <cell r="E4">
-            <v>-7.6150620627174499</v>
+            <v>-2.5383540209058166</v>
           </cell>
           <cell r="F4">
-            <v>-7.6213957130669945</v>
+            <v>-2.540465237688998</v>
           </cell>
           <cell r="G4">
-            <v>-6.4272035228740867</v>
+            <v>-2.1424011742913622</v>
           </cell>
           <cell r="H4">
-            <v>-0.23698354235235511</v>
+            <v>-7.8994514117451703E-2</v>
           </cell>
           <cell r="I4">
-            <v>3.3136503838845517</v>
+            <v>1.1045501279615173</v>
           </cell>
           <cell r="J4">
-            <v>4.1819043562462399</v>
+            <v>1.3939681187487465</v>
           </cell>
           <cell r="K4">
-            <v>2.8266821471230203</v>
+            <v>0.94222738237434012</v>
           </cell>
           <cell r="L4">
-            <v>1.737058093998862</v>
+            <v>0.57901936466628734</v>
           </cell>
           <cell r="M4">
-            <v>3.3441894673318644</v>
+            <v>1.1147298224439548</v>
           </cell>
           <cell r="N4">
-            <v>2.1725778686451975</v>
+            <v>0.72419262288173258</v>
           </cell>
           <cell r="O4">
-            <v>0.65914533257381469</v>
+            <v>0.21971511085793821</v>
           </cell>
           <cell r="P4">
-            <v>-2.5821672497421697</v>
+            <v>-0.86072241658072324</v>
           </cell>
           <cell r="Q4">
-            <v>-2.6088429445579258</v>
+            <v>-0.86961431485264196</v>
           </cell>
           <cell r="R4">
-            <v>-2.1490569062416425</v>
+            <v>-0.71635230208054745</v>
           </cell>
           <cell r="S4">
-            <v>-1.0416398940250127</v>
+            <v>-0.34721329800833756</v>
           </cell>
           <cell r="T4">
-            <v>-2.5905587750561829</v>
+            <v>-0.86351959168539427</v>
           </cell>
           <cell r="U4">
-            <v>-1.4465075976158803</v>
+            <v>-0.48216919920529344</v>
           </cell>
           <cell r="V4">
-            <v>-2.0265079057684314</v>
+            <v>-0.67550263525614385</v>
           </cell>
           <cell r="W4">
-            <v>-3.2939738776103744</v>
+            <v>-1.0979912925367914</v>
           </cell>
           <cell r="X4">
-            <v>-5.3102289274897752</v>
+            <v>-1.7700763091632583</v>
           </cell>
           <cell r="Y4">
-            <v>-5.8745009384920603</v>
+            <v>-1.9581669794973533</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>-18.291390167362987</v>
+            <v>-6.0971300557876624</v>
           </cell>
           <cell r="C5">
-            <v>-18.28620995690704</v>
+            <v>-6.0954033189690131</v>
           </cell>
           <cell r="D5">
-            <v>-18.661290783208937</v>
+            <v>-6.2204302610696454</v>
           </cell>
           <cell r="E5">
-            <v>-18.634520416251291</v>
+            <v>-6.2115068054170974</v>
           </cell>
           <cell r="F5">
-            <v>-19.099475370684214</v>
+            <v>-6.3664917902280713</v>
           </cell>
           <cell r="G5">
-            <v>-17.810926176405108</v>
+            <v>-5.9369753921350368</v>
           </cell>
           <cell r="H5">
-            <v>-15.14987697264668</v>
+            <v>-5.0499589908822271</v>
           </cell>
           <cell r="I5">
-            <v>-13.970115194115968</v>
+            <v>-4.6567050647053234</v>
           </cell>
           <cell r="J5">
-            <v>-14.521605677793586</v>
+            <v>-4.8405352259311956</v>
           </cell>
           <cell r="K5">
-            <v>-16.087198270394101</v>
+            <v>-5.3623994234646997</v>
           </cell>
           <cell r="L5">
-            <v>-16.654076259111061</v>
+            <v>-5.5513587530370208</v>
           </cell>
           <cell r="M5">
-            <v>-18.168350494158449</v>
+            <v>-6.0561168313861495</v>
           </cell>
           <cell r="N5">
-            <v>-18.011512363152679</v>
+            <v>-6.003837454384227</v>
           </cell>
           <cell r="O5">
-            <v>-17.979486630647823</v>
+            <v>-5.9931622102159405</v>
           </cell>
           <cell r="P5">
-            <v>-17.954350689216412</v>
+            <v>-5.9847835630721384</v>
           </cell>
           <cell r="Q5">
-            <v>-17.774242737819968</v>
+            <v>-5.9247475792733226</v>
           </cell>
           <cell r="R5">
-            <v>-14.746060829626423</v>
+            <v>-4.9153536098754742</v>
           </cell>
           <cell r="S5">
-            <v>-8.7887597690972914</v>
+            <v>-2.9295865896990971</v>
           </cell>
           <cell r="T5">
-            <v>-11.451814325952357</v>
+            <v>-3.8172714419841189</v>
           </cell>
           <cell r="U5">
-            <v>-14.171791525104704</v>
+            <v>-4.7239305083682348</v>
           </cell>
           <cell r="V5">
-            <v>-15.105230129137865</v>
+            <v>-5.0350767097126221</v>
           </cell>
           <cell r="W5">
-            <v>-15.661114179836861</v>
+            <v>-5.2203713932789544</v>
           </cell>
           <cell r="X5">
-            <v>-17.230881586642415</v>
+            <v>-5.7436271955474716</v>
           </cell>
           <cell r="Y5">
-            <v>-16.974820558803561</v>
+            <v>-5.6582735196011873</v>
           </cell>
         </row>
         <row r="6">
@@ -6410,150 +6410,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-7.0243195182025735</v>
+            <v>-2.341439839400858</v>
           </cell>
           <cell r="C4">
-            <v>-7.5042189567904032</v>
+            <v>-2.5014063189301341</v>
           </cell>
           <cell r="D4">
-            <v>-7.7182814571847693</v>
+            <v>-2.5727604857282564</v>
           </cell>
           <cell r="E4">
-            <v>-7.5396654086311381</v>
+            <v>-2.5132218028770459</v>
           </cell>
           <cell r="F4">
-            <v>-7.3950176225798554</v>
+            <v>-2.465005874193285</v>
           </cell>
           <cell r="G4">
-            <v>-6.3011799243863589</v>
+            <v>-2.1003933081287864</v>
           </cell>
           <cell r="H4">
-            <v>-0.23698354235235511</v>
+            <v>-7.8994514117451703E-2</v>
           </cell>
           <cell r="I4">
-            <v>3.216190078476183</v>
+            <v>1.072063359492061</v>
           </cell>
           <cell r="J4">
-            <v>4.140499362620039</v>
+            <v>1.3801664542066798</v>
           </cell>
           <cell r="K4">
-            <v>2.9420569286382454</v>
+            <v>0.98068564287941518</v>
           </cell>
           <cell r="L4">
-            <v>1.6689381687440046</v>
+            <v>0.55631272291466816</v>
           </cell>
           <cell r="M4">
-            <v>3.3441894673318644</v>
+            <v>1.1147298224439548</v>
           </cell>
           <cell r="N4">
-            <v>2.1086785195673978</v>
+            <v>0.70289283985579931</v>
           </cell>
           <cell r="O4">
-            <v>0.64622091428805362</v>
+            <v>0.21540697142935122</v>
           </cell>
           <cell r="P4">
-            <v>-2.5821672497421697</v>
+            <v>-0.86072241658072324</v>
           </cell>
           <cell r="Q4">
-            <v>-2.5321122697179872</v>
+            <v>-0.84403742323932907</v>
           </cell>
           <cell r="R4">
-            <v>-2.085849350175712</v>
+            <v>-0.69528311672523735</v>
           </cell>
           <cell r="S4">
-            <v>-1.0841558080668499</v>
+            <v>-0.36138526935561666</v>
           </cell>
           <cell r="T4">
-            <v>-2.6423699505573062</v>
+            <v>-0.88078998351910209</v>
           </cell>
           <cell r="U4">
-            <v>-1.4465075976158803</v>
+            <v>-0.48216919920529344</v>
           </cell>
           <cell r="V4">
-            <v>-1.9859777476530627</v>
+            <v>-0.66199258255102089</v>
           </cell>
           <cell r="W4">
-            <v>-3.327585855953338</v>
+            <v>-1.1091952853177793</v>
           </cell>
           <cell r="X4">
-            <v>-5.3102289274897752</v>
+            <v>-1.7700763091632583</v>
           </cell>
           <cell r="Y4">
-            <v>-5.9943887127470008</v>
+            <v>-1.9981295709156668</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>-18.106628650520936</v>
+            <v>-6.0355428835069791</v>
           </cell>
           <cell r="C5">
-            <v>-18.659397915211265</v>
+            <v>-6.2197993050704223</v>
           </cell>
           <cell r="D5">
-            <v>-18.472792896509855</v>
+            <v>-6.1575976321699519</v>
           </cell>
           <cell r="E5">
-            <v>-18.824668583764062</v>
+            <v>-6.2748895279213546</v>
           </cell>
           <cell r="F5">
-            <v>-18.908480616977371</v>
+            <v>-6.3028268723257908</v>
           </cell>
           <cell r="G5">
-            <v>-17.636309253107019</v>
+            <v>-5.8787697510356729</v>
           </cell>
           <cell r="H5">
-            <v>-15.301375742373148</v>
+            <v>-5.1004585807910496</v>
           </cell>
           <cell r="I5">
-            <v>-13.970115194115968</v>
+            <v>-4.6567050647053234</v>
           </cell>
           <cell r="J5">
-            <v>-14.23686831156234</v>
+            <v>-4.7456227705207796</v>
           </cell>
           <cell r="K5">
-            <v>-15.456327749986487</v>
+            <v>-5.1521092499954957</v>
           </cell>
           <cell r="L5">
-            <v>-17.158745236659886</v>
+            <v>-5.7195817455532953</v>
           </cell>
           <cell r="M5">
-            <v>-17.455866161054193</v>
+            <v>-5.8186220536847317</v>
           </cell>
           <cell r="N5">
-            <v>-17.83318055757691</v>
+            <v>-5.9443935191923041</v>
           </cell>
           <cell r="O5">
-            <v>-18.342708582782123</v>
+            <v>-6.114236194260708</v>
           </cell>
           <cell r="P5">
-            <v>-18.503973669498549</v>
+            <v>-6.167991223166184</v>
           </cell>
           <cell r="Q5">
-            <v>-17.596500310441769</v>
+            <v>-5.8655001034805903</v>
           </cell>
           <cell r="R5">
-            <v>-15.19747085502315</v>
+            <v>-5.0658236183410503</v>
           </cell>
           <cell r="S5">
-            <v>-8.9681222133645822</v>
+            <v>-2.9893740711215275</v>
           </cell>
           <cell r="T5">
-            <v>-11.451814325952357</v>
+            <v>-3.8172714419841189</v>
           </cell>
           <cell r="U5">
-            <v>-13.891161989954114</v>
+            <v>-4.6303873299847043</v>
           </cell>
           <cell r="V5">
-            <v>-15.105230129137865</v>
+            <v>-5.0350767097126221</v>
           </cell>
           <cell r="W5">
-            <v>-15.980728754935573</v>
+            <v>-5.3269095849785248</v>
           </cell>
           <cell r="X5">
-            <v>-16.724090951741168</v>
+            <v>-5.5746969839137224</v>
           </cell>
           <cell r="Y5">
-            <v>-17.314316969979632</v>
+            <v>-5.7714389899932108</v>
           </cell>
         </row>
         <row r="6">
@@ -7522,150 +7522,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>7.2503187714824255</v>
+            <v>2.4167729238274753</v>
           </cell>
           <cell r="C4">
-            <v>6.813740436855527</v>
+            <v>2.2712468122851757</v>
           </cell>
           <cell r="D4">
-            <v>6.2784122408249265</v>
+            <v>2.0928040802749757</v>
           </cell>
           <cell r="E4">
-            <v>6.5330829360239502</v>
+            <v>2.1776943120079837</v>
           </cell>
           <cell r="F4">
-            <v>6.4135436301142041</v>
+            <v>2.1378478767047349</v>
           </cell>
           <cell r="G4">
-            <v>6.5434776582769709</v>
+            <v>2.1811592194256568</v>
           </cell>
           <cell r="H4">
-            <v>9.277289610821601</v>
+            <v>3.0924298702738673</v>
           </cell>
           <cell r="I4">
-            <v>11.875970174076951</v>
+            <v>3.9586567246923172</v>
           </cell>
           <cell r="J4">
-            <v>12.447679897993126</v>
+            <v>4.1492266326643756</v>
           </cell>
           <cell r="K4">
-            <v>11.673273090143033</v>
+            <v>3.8910910300476775</v>
           </cell>
           <cell r="L4">
-            <v>11.423799756070519</v>
+            <v>3.8079332520235063</v>
           </cell>
           <cell r="M4">
-            <v>12.281364341944785</v>
+            <v>4.0937881139815948</v>
           </cell>
           <cell r="N4">
-            <v>12.842679343607941</v>
+            <v>4.2808931145359805</v>
           </cell>
           <cell r="O4">
-            <v>11.922746424215546</v>
+            <v>3.9742488080718488</v>
           </cell>
           <cell r="P4">
-            <v>10.872879476660385</v>
+            <v>3.6242931588867955</v>
           </cell>
           <cell r="Q4">
-            <v>10.311564474997228</v>
+            <v>3.4371881583324098</v>
           </cell>
           <cell r="R4">
-            <v>10.540248364563698</v>
+            <v>3.5134161215212329</v>
           </cell>
           <cell r="S4">
-            <v>10.181630446834461</v>
+            <v>3.3938768156114874</v>
           </cell>
           <cell r="T4">
-            <v>9.9477491961414799</v>
+            <v>3.3159163987138269</v>
           </cell>
           <cell r="U4">
-            <v>10.84169530990132</v>
+            <v>3.6138984366337734</v>
           </cell>
           <cell r="V4">
-            <v>11.35623406142588</v>
+            <v>3.7854113538086271</v>
           </cell>
           <cell r="W4">
-            <v>10.597419336955317</v>
+            <v>3.5324731123184394</v>
           </cell>
           <cell r="X4">
-            <v>9.287684333074619</v>
+            <v>3.09589477769154</v>
           </cell>
           <cell r="Y4">
-            <v>7.7388707173744331</v>
+            <v>2.5796235724581447</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>8.3294501397949681</v>
+            <v>2.7764833799316557</v>
           </cell>
           <cell r="C5">
-            <v>6.5237651444547993</v>
+            <v>2.1745883814849334</v>
           </cell>
           <cell r="D5">
-            <v>5.1258154706430554</v>
+            <v>1.7086051568810185</v>
           </cell>
           <cell r="E5">
-            <v>5.0675675675675667</v>
+            <v>1.689189189189189</v>
           </cell>
           <cell r="F5">
-            <v>4.6598322460391426</v>
+            <v>1.5532774153463809</v>
           </cell>
           <cell r="G5">
-            <v>4.4268406337371857</v>
+            <v>1.4756135445790619</v>
           </cell>
           <cell r="H5">
-            <v>9.9603914259086661</v>
+            <v>3.3201304753028889</v>
           </cell>
           <cell r="I5">
-            <v>17.998602050326184</v>
+            <v>5.9995340167753959</v>
           </cell>
           <cell r="J5">
-            <v>21.84296365330848</v>
+            <v>7.2809878844361604</v>
           </cell>
           <cell r="K5">
-            <v>22.367194780987884</v>
+            <v>7.4557315936626285</v>
           </cell>
           <cell r="L5">
-            <v>21.959459459459456</v>
+            <v>7.319819819819819</v>
           </cell>
           <cell r="M5">
-            <v>19.687791239515374</v>
+            <v>6.5625970798384587</v>
           </cell>
           <cell r="N5">
-            <v>22.308946877912391</v>
+            <v>7.4363156259707974</v>
           </cell>
           <cell r="O5">
-            <v>21.027493010251629</v>
+            <v>7.0091643367505432</v>
           </cell>
           <cell r="P5">
-            <v>19.163560111835974</v>
+            <v>6.3878533706119915</v>
           </cell>
           <cell r="Q5">
-            <v>17.707362534948743</v>
+            <v>5.9024541783162476</v>
           </cell>
           <cell r="R5">
-            <v>16.076421248835043</v>
+            <v>5.3588070829450141</v>
           </cell>
           <cell r="S5">
-            <v>14.270736253494873</v>
+            <v>4.7569120844982908</v>
           </cell>
           <cell r="T5">
-            <v>18.173345759552653</v>
+            <v>6.0577819198508855</v>
           </cell>
           <cell r="U5">
-            <v>21.318732525629077</v>
+            <v>7.1062441752096923</v>
           </cell>
           <cell r="V5">
-            <v>24.464119291705501</v>
+            <v>8.1547064305685009</v>
           </cell>
           <cell r="W5">
-            <v>23.299161230195711</v>
+            <v>7.7663870767319043</v>
           </cell>
           <cell r="X5">
-            <v>17.416123019571295</v>
+            <v>5.8053743398570994</v>
           </cell>
           <cell r="Y5">
-            <v>12.465051258154705</v>
+            <v>4.1550170860515685</v>
           </cell>
         </row>
         <row r="6">
@@ -8634,150 +8634,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>7.1053123960527778</v>
+            <v>2.3684374653509264</v>
           </cell>
           <cell r="C4">
-            <v>6.9500152455926374</v>
+            <v>2.3166717485308794</v>
           </cell>
           <cell r="D4">
-            <v>6.2156281184166779</v>
+            <v>2.071876039472226</v>
           </cell>
           <cell r="E4">
-            <v>6.4677521066637107</v>
+            <v>2.1559173688879039</v>
           </cell>
           <cell r="F4">
-            <v>6.5418145027164876</v>
+            <v>2.1806048342388293</v>
           </cell>
           <cell r="G4">
-            <v>6.4126081051114321</v>
+            <v>2.1375360350371442</v>
           </cell>
           <cell r="H4">
-            <v>9.0917438186051687</v>
+            <v>3.0305812728683899</v>
           </cell>
           <cell r="I4">
-            <v>12.113489577558489</v>
+            <v>4.0378298591861634</v>
           </cell>
           <cell r="J4">
-            <v>12.323203099013194</v>
+            <v>4.1077343663377315</v>
           </cell>
           <cell r="K4">
-            <v>11.790005821044462</v>
+            <v>3.9300019403481543</v>
           </cell>
           <cell r="L4">
-            <v>11.423799756070519</v>
+            <v>3.8079332520235067</v>
           </cell>
           <cell r="M4">
-            <v>12.035737055105889</v>
+            <v>4.0119123517019633</v>
           </cell>
           <cell r="N4">
-            <v>12.842679343607941</v>
+            <v>4.2808931145359805</v>
           </cell>
           <cell r="O4">
-            <v>11.684291495731236</v>
+            <v>3.8947638319104119</v>
           </cell>
           <cell r="P4">
-            <v>10.872879476660385</v>
+            <v>3.6242931588867955</v>
           </cell>
           <cell r="Q4">
-            <v>10.414680119747201</v>
+            <v>3.471560039915734</v>
           </cell>
           <cell r="R4">
-            <v>10.434845880918063</v>
+            <v>3.4782819603060209</v>
           </cell>
           <cell r="S4">
-            <v>9.9779978378977709</v>
+            <v>3.3259992792992574</v>
           </cell>
           <cell r="T4">
-            <v>9.8482717041800658</v>
+            <v>3.2827572347266889</v>
           </cell>
           <cell r="U4">
-            <v>11.058529216099348</v>
+            <v>3.6861764053664494</v>
           </cell>
           <cell r="V4">
-            <v>11.242671720811622</v>
+            <v>3.7475572402705408</v>
           </cell>
           <cell r="W4">
-            <v>10.809367723694422</v>
+            <v>3.6031225745648077</v>
           </cell>
           <cell r="X4">
-            <v>9.287684333074619</v>
+            <v>3.09589477769154</v>
           </cell>
           <cell r="Y4">
-            <v>7.8162594245481776</v>
+            <v>2.605419808182726</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>8.3294501397949681</v>
+            <v>2.7764833799316557</v>
           </cell>
           <cell r="C5">
-            <v>6.5890027958993462</v>
+            <v>2.1963342652997824</v>
           </cell>
           <cell r="D5">
-            <v>5.0232991612301952</v>
+            <v>1.6744330537433985</v>
           </cell>
           <cell r="E5">
-            <v>5.0675675675675675</v>
+            <v>1.6891891891891893</v>
           </cell>
           <cell r="F5">
-            <v>4.6598322460391435</v>
+            <v>1.5532774153463811</v>
           </cell>
           <cell r="G5">
-            <v>4.3825722273998142</v>
+            <v>1.4608574091332716</v>
           </cell>
           <cell r="H5">
-            <v>10.059995340167754</v>
+            <v>3.3533317800559184</v>
           </cell>
           <cell r="I5">
-            <v>17.998602050326184</v>
+            <v>5.9995340167753959</v>
           </cell>
           <cell r="J5">
-            <v>21.84296365330848</v>
+            <v>7.2809878844361604</v>
           </cell>
           <cell r="K5">
-            <v>21.919850885368124</v>
+            <v>7.3066169617893753</v>
           </cell>
           <cell r="L5">
-            <v>21.73986486486486</v>
+            <v>7.246621621621621</v>
           </cell>
           <cell r="M5">
-            <v>19.884669151910529</v>
+            <v>6.6282230506368434</v>
           </cell>
           <cell r="N5">
-            <v>22.532036346691516</v>
+            <v>7.5106787822305057</v>
           </cell>
           <cell r="O5">
-            <v>21.237767940354146</v>
+            <v>7.0792559801180497</v>
           </cell>
           <cell r="P5">
-            <v>18.971924510717617</v>
+            <v>6.3239748369058724</v>
           </cell>
           <cell r="Q5">
-            <v>17.884436160298232</v>
+            <v>5.9614787200994108</v>
           </cell>
           <cell r="R5">
-            <v>16.237185461323392</v>
+            <v>5.4123951537744652</v>
           </cell>
           <cell r="S5">
-            <v>14.128028890959925</v>
+            <v>4.7093429636533086</v>
           </cell>
           <cell r="T5">
-            <v>18.173345759552653</v>
+            <v>6.0577819198508855</v>
           </cell>
           <cell r="U5">
-            <v>21.105545200372784</v>
+            <v>7.0351817334575957</v>
           </cell>
           <cell r="V5">
-            <v>24.219478098788443</v>
+            <v>8.0731593662628143</v>
           </cell>
           <cell r="W5">
-            <v>23.53215284249767</v>
+            <v>7.8440509474992233</v>
           </cell>
           <cell r="X5">
-            <v>17.416123019571298</v>
+            <v>5.8053743398571003</v>
           </cell>
           <cell r="Y5">
-            <v>12.589701770736252</v>
+            <v>4.1965672569120844</v>
           </cell>
         </row>
         <row r="6">
@@ -9746,150 +9746,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>7.3228219591972508</v>
+            <v>2.4409406530657503</v>
           </cell>
           <cell r="C4">
-            <v>6.6774656281184166</v>
+            <v>2.2258218760394723</v>
           </cell>
           <cell r="D4">
-            <v>6.4039804856414246</v>
+            <v>2.134660161880475</v>
           </cell>
           <cell r="E4">
-            <v>6.5984137653841897</v>
+            <v>2.1994712551280631</v>
           </cell>
           <cell r="F4">
-            <v>6.349408193813062</v>
+            <v>2.1164693979376876</v>
           </cell>
           <cell r="G4">
-            <v>6.4126081051114312</v>
+            <v>2.1375360350371437</v>
           </cell>
           <cell r="H4">
-            <v>9.4628354030380333</v>
+            <v>3.1542784676793447</v>
           </cell>
           <cell r="I4">
-            <v>11.99472987581772</v>
+            <v>3.9982432919392403</v>
           </cell>
           <cell r="J4">
-            <v>12.323203099013194</v>
+            <v>4.1077343663377315</v>
           </cell>
           <cell r="K4">
-            <v>11.906738551945892</v>
+            <v>3.9689128506486311</v>
           </cell>
           <cell r="L4">
-            <v>11.195323760949108</v>
+            <v>3.7317745869830361</v>
           </cell>
           <cell r="M4">
-            <v>12.52699162878368</v>
+            <v>4.1756638762612273</v>
           </cell>
           <cell r="N4">
-            <v>13.0995329304801</v>
+            <v>4.3665109768267003</v>
           </cell>
           <cell r="O4">
-            <v>11.684291495731236</v>
+            <v>3.8947638319104119</v>
           </cell>
           <cell r="P4">
-            <v>10.764150681893783</v>
+            <v>3.5880502272979276</v>
           </cell>
           <cell r="Q4">
-            <v>10.517795764497173</v>
+            <v>3.5059319214990579</v>
           </cell>
           <cell r="R4">
-            <v>10.751053331854973</v>
+            <v>3.5836844439516575</v>
           </cell>
           <cell r="S4">
-            <v>9.9779978378977709</v>
+            <v>3.3259992792992574</v>
           </cell>
           <cell r="T4">
-            <v>10.14670418006431</v>
+            <v>3.3822347266881034</v>
           </cell>
           <cell r="U4">
-            <v>10.733278356802307</v>
+            <v>3.5777594522674359</v>
           </cell>
           <cell r="V4">
-            <v>11.583358742654397</v>
+            <v>3.8611195808847993</v>
           </cell>
           <cell r="W4">
-            <v>10.385470950216211</v>
+            <v>3.4618236500720707</v>
           </cell>
           <cell r="X4">
-            <v>9.3805611764053651</v>
+            <v>3.1268537254684556</v>
           </cell>
           <cell r="Y4">
-            <v>7.5840933030269442</v>
+            <v>2.5280311010089815</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>8.3294501397949681</v>
+            <v>2.7764833799316557</v>
           </cell>
           <cell r="C5">
-            <v>6.589002795899348</v>
+            <v>2.1963342652997828</v>
           </cell>
           <cell r="D5">
-            <v>5.0232991612301943</v>
+            <v>1.6744330537433982</v>
           </cell>
           <cell r="E5">
-            <v>5.1689189189189184</v>
+            <v>1.722972972972973</v>
           </cell>
           <cell r="F5">
-            <v>4.6132339235787505</v>
+            <v>1.537744641192917</v>
           </cell>
           <cell r="G5">
-            <v>4.4268406337371857</v>
+            <v>1.4756135445790619</v>
           </cell>
           <cell r="H5">
-            <v>9.9603914259086661</v>
+            <v>3.3201304753028889</v>
           </cell>
           <cell r="I5">
-            <v>17.818616029822923</v>
+            <v>5.9395386766076417</v>
           </cell>
           <cell r="J5">
-            <v>22.061393289841565</v>
+            <v>7.3537977632805216</v>
           </cell>
           <cell r="K5">
-            <v>22.367194780987884</v>
+            <v>7.4557315936626285</v>
           </cell>
           <cell r="L5">
-            <v>21.959459459459456</v>
+            <v>7.319819819819819</v>
           </cell>
           <cell r="M5">
-            <v>20.081547064305685</v>
+            <v>6.6938490214352289</v>
           </cell>
           <cell r="N5">
-            <v>22.085857409133268</v>
+            <v>7.3619524697110901</v>
           </cell>
           <cell r="O5">
-            <v>21.027493010251629</v>
+            <v>7.0091643367505432</v>
           </cell>
           <cell r="P5">
-            <v>19.355195712954334</v>
+            <v>6.4517319043181116</v>
           </cell>
           <cell r="Q5">
-            <v>17.530288909599253</v>
+            <v>5.8434296365330853</v>
           </cell>
           <cell r="R5">
-            <v>15.91565703634669</v>
+            <v>5.3052190121155638</v>
           </cell>
           <cell r="S5">
-            <v>14.128028890959925</v>
+            <v>4.7093429636533086</v>
           </cell>
           <cell r="T5">
-            <v>17.809878844361602</v>
+            <v>5.9366262814538677</v>
           </cell>
           <cell r="U5">
-            <v>21.318732525629077</v>
+            <v>7.1062441752096923</v>
           </cell>
           <cell r="V5">
-            <v>24.708760484622555</v>
+            <v>8.2362534948741857</v>
           </cell>
           <cell r="W5">
-            <v>23.765144454799625</v>
+            <v>7.9217148182665422</v>
           </cell>
           <cell r="X5">
-            <v>17.416123019571295</v>
+            <v>5.8053743398570994</v>
           </cell>
           <cell r="Y5">
-            <v>12.340400745573158</v>
+            <v>4.1134669151910535</v>
           </cell>
         </row>
         <row r="6">
@@ -10858,150 +10858,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-1.1200557809330629</v>
+            <v>-0.37335192697768765</v>
           </cell>
           <cell r="C4">
-            <v>-2.6527636916835697</v>
+            <v>-0.88425456389452317</v>
           </cell>
           <cell r="D4">
-            <v>-4.6275988843813387</v>
+            <v>-1.5425329614604462</v>
           </cell>
           <cell r="E4">
-            <v>-4.2738970588235299</v>
+            <v>-1.4246323529411766</v>
           </cell>
           <cell r="F4">
-            <v>-4.3623225152129814</v>
+            <v>-1.454107505070994</v>
           </cell>
           <cell r="G4">
-            <v>-4.1559964503042606</v>
+            <v>-1.38533215010142</v>
           </cell>
           <cell r="H4">
-            <v>-0.23580121703853957</v>
+            <v>-7.8600405679513194E-2</v>
           </cell>
           <cell r="I4">
-            <v>4.9813007099391475</v>
+            <v>1.6604335699797159</v>
           </cell>
           <cell r="J4">
-            <v>6.5434837728194717</v>
+            <v>2.1811612576064907</v>
           </cell>
           <cell r="K4">
-            <v>6.6024340770791081</v>
+            <v>2.2008113590263694</v>
           </cell>
           <cell r="L4">
-            <v>5.5118534482758621</v>
+            <v>1.8372844827586208</v>
           </cell>
           <cell r="M4">
-            <v>6.8971855983772814</v>
+            <v>2.2990618661257605</v>
           </cell>
           <cell r="N4">
-            <v>6.2487322515212984</v>
+            <v>2.0829107505070996</v>
           </cell>
           <cell r="O4">
-            <v>5.4529031440162266</v>
+            <v>1.8176343813387423</v>
           </cell>
           <cell r="P4">
-            <v>3.9201952332657197</v>
+            <v>1.3067317444219066</v>
           </cell>
           <cell r="Q4">
-            <v>2.446437626774848</v>
+            <v>0.81547920892494941</v>
           </cell>
           <cell r="R4">
-            <v>3.0359406693711968</v>
+            <v>1.0119802231237323</v>
           </cell>
           <cell r="S4">
-            <v>2.7117139959432048</v>
+            <v>0.90390466531440161</v>
           </cell>
           <cell r="T4">
-            <v>0.50107758620689646</v>
+            <v>0.1670258620689655</v>
           </cell>
           <cell r="U4">
-            <v>2.1811612576064907</v>
+            <v>0.72705375253549698</v>
           </cell>
           <cell r="V4">
-            <v>3.0654158215010141</v>
+            <v>1.0218052738336714</v>
           </cell>
           <cell r="W4">
-            <v>2.0043103448275863</v>
+            <v>0.6681034482758621</v>
           </cell>
           <cell r="X4">
-            <v>-1.856934584178499</v>
+            <v>-0.61897819472616633</v>
           </cell>
           <cell r="Y4">
-            <v>-3.8022946247464504</v>
+            <v>-1.2674315415821502</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>-17.171244886031563</v>
+            <v>-5.7237482953438539</v>
           </cell>
           <cell r="C5">
-            <v>-17.33635300993571</v>
+            <v>-5.7787843366452369</v>
           </cell>
           <cell r="D5">
-            <v>-17.831677381648159</v>
+            <v>-5.943892460549387</v>
           </cell>
           <cell r="E5">
-            <v>-17.831677381648159</v>
+            <v>-5.943892460549387</v>
           </cell>
           <cell r="F5">
-            <v>-18.244447691408535</v>
+            <v>-6.0814825638028447</v>
           </cell>
           <cell r="G5">
-            <v>-18.739772063120984</v>
+            <v>-6.2465906877069948</v>
           </cell>
           <cell r="H5">
-            <v>-17.006136762127412</v>
+            <v>-5.6687122540424708</v>
           </cell>
           <cell r="I5">
-            <v>-11.4750146113384</v>
+            <v>-3.8250048704461337</v>
           </cell>
           <cell r="J5">
-            <v>-8.5856224430157813</v>
+            <v>-2.8618741476719269</v>
           </cell>
           <cell r="K5">
-            <v>-9.0809468147282288</v>
+            <v>-3.0269822715760766</v>
           </cell>
           <cell r="L5">
-            <v>-11.4750146113384</v>
+            <v>-3.8250048704461337</v>
           </cell>
           <cell r="M5">
-            <v>-12.465663354763299</v>
+            <v>-4.155221118254433</v>
           </cell>
           <cell r="N5">
-            <v>-11.557568673290472</v>
+            <v>-3.8525228910968243</v>
           </cell>
           <cell r="O5">
-            <v>-12.548217416715373</v>
+            <v>-4.1827391389051245</v>
           </cell>
           <cell r="P5">
-            <v>-11.805230859146699</v>
+            <v>-3.9350769530488998</v>
           </cell>
           <cell r="Q5">
-            <v>-13.951636469900642</v>
+            <v>-4.6505454899668806</v>
           </cell>
           <cell r="R5">
-            <v>-15.685271770894214</v>
+            <v>-5.2284239236314054</v>
           </cell>
           <cell r="S5">
-            <v>-13.951636469900642</v>
+            <v>-4.6505454899668806</v>
           </cell>
           <cell r="T5">
-            <v>-9.8239333722969011</v>
+            <v>-3.2746444574323008</v>
           </cell>
           <cell r="U5">
-            <v>-8.8332846288720059</v>
+            <v>-2.944428209624002</v>
           </cell>
           <cell r="V5">
-            <v>-8.8332846288720059</v>
+            <v>-2.944428209624002</v>
           </cell>
           <cell r="W5">
-            <v>-11.640122735242549</v>
+            <v>-3.8800409117475168</v>
           </cell>
           <cell r="X5">
-            <v>-14.446960841613093</v>
+            <v>-4.8156536138710306</v>
           </cell>
           <cell r="Y5">
-            <v>-15.024839275277616</v>
+            <v>-5.0082797584258723</v>
           </cell>
         </row>
         <row r="6">
@@ -11970,150 +11970,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-1.1424568965517241</v>
+            <v>-0.38081896551724137</v>
           </cell>
           <cell r="C4">
-            <v>-2.7058189655172407</v>
+            <v>-0.90193965517241359</v>
           </cell>
           <cell r="D4">
-            <v>-4.7201508620689649</v>
+            <v>-1.573383620689655</v>
           </cell>
           <cell r="E4">
-            <v>-4.3166360294117654</v>
+            <v>-1.4388786764705883</v>
           </cell>
           <cell r="F4">
-            <v>-4.4495689655172415</v>
+            <v>-1.4831896551724137</v>
           </cell>
           <cell r="G4">
-            <v>-4.1975564148073028</v>
+            <v>-1.3991854716024341</v>
           </cell>
           <cell r="H4">
-            <v>-0.23108519269776878</v>
+            <v>-7.7028397565922932E-2</v>
           </cell>
           <cell r="I4">
-            <v>4.9314877028397559</v>
+            <v>1.6438292342799186</v>
           </cell>
           <cell r="J4">
-            <v>6.6743534482758617</v>
+            <v>2.2247844827586207</v>
           </cell>
           <cell r="K4">
-            <v>6.6684584178498998</v>
+            <v>2.2228194726166333</v>
           </cell>
           <cell r="L4">
-            <v>5.4567349137931043</v>
+            <v>1.8189116379310346</v>
           </cell>
           <cell r="M4">
-            <v>6.8282137423935083</v>
+            <v>2.2760712474645026</v>
           </cell>
           <cell r="N4">
-            <v>6.123757606490873</v>
+            <v>2.0412525354969575</v>
           </cell>
           <cell r="O4">
-            <v>5.3438450811359015</v>
+            <v>1.7812816937119673</v>
           </cell>
           <cell r="P4">
-            <v>3.8809932809330627</v>
+            <v>1.2936644269776876</v>
           </cell>
           <cell r="Q4">
-            <v>2.4709020030425966</v>
+            <v>0.82363400101419892</v>
           </cell>
           <cell r="R4">
-            <v>3.0359406693711968</v>
+            <v>1.0119802231237323</v>
           </cell>
           <cell r="S4">
-            <v>2.7117139959432048</v>
+            <v>0.90390466531440161</v>
           </cell>
           <cell r="T4">
-            <v>0.51109913793103445</v>
+            <v>0.17036637931034479</v>
           </cell>
           <cell r="U4">
-            <v>2.1593496450304257</v>
+            <v>0.71978321501014186</v>
           </cell>
           <cell r="V4">
-            <v>3.0654158215010141</v>
+            <v>1.0218052738336714</v>
           </cell>
           <cell r="W4">
-            <v>2.0243534482758623</v>
+            <v>0.67478448275862069</v>
           </cell>
           <cell r="X4">
-            <v>-1.875503930020284</v>
+            <v>-0.62516797667342794</v>
           </cell>
           <cell r="Y4">
-            <v>-3.8783405172413796</v>
+            <v>-1.2927801724137933</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>-17.514669783752193</v>
+            <v>-5.8382232612507305</v>
           </cell>
           <cell r="C5">
-            <v>-17.509716540035068</v>
+            <v>-5.8365721800116894</v>
           </cell>
           <cell r="D5">
-            <v>-17.653360607831679</v>
+            <v>-5.8844535359438934</v>
           </cell>
           <cell r="E5">
-            <v>-18.188310929281126</v>
+            <v>-6.0627703097603751</v>
           </cell>
           <cell r="F5">
-            <v>-17.879558737580361</v>
+            <v>-5.9598529125267872</v>
           </cell>
           <cell r="G5">
-            <v>-18.552374342489774</v>
+            <v>-6.1841247808299249</v>
           </cell>
           <cell r="H5">
-            <v>-17.176198129748684</v>
+            <v>-5.7253993765828959</v>
           </cell>
           <cell r="I5">
-            <v>-11.245514319111631</v>
+            <v>-3.7485047730372107</v>
           </cell>
           <cell r="J5">
-            <v>-8.413909994155464</v>
+            <v>-2.8046366647184886</v>
           </cell>
           <cell r="K5">
-            <v>-9.2625657510227946</v>
+            <v>-3.0875219170075985</v>
           </cell>
           <cell r="L5">
-            <v>-11.704514903565169</v>
+            <v>-3.9015049678550562</v>
           </cell>
           <cell r="M5">
-            <v>-12.341006721215665</v>
+            <v>-4.1136689070718884</v>
           </cell>
           <cell r="N5">
-            <v>-11.326417299824664</v>
+            <v>-3.7754724332748886</v>
           </cell>
           <cell r="O5">
-            <v>-12.422735242548217</v>
+            <v>-4.140911747516073</v>
           </cell>
           <cell r="P5">
-            <v>-11.805230859146699</v>
+            <v>-3.9350769530488998</v>
           </cell>
           <cell r="Q5">
-            <v>-14.230669199298655</v>
+            <v>-4.7435563997662191</v>
           </cell>
           <cell r="R5">
-            <v>-15.371566335476331</v>
+            <v>-5.1238554451587772</v>
           </cell>
           <cell r="S5">
-            <v>-14.230669199298655</v>
+            <v>-4.7435563997662191</v>
           </cell>
           <cell r="T5">
-            <v>-10.020412039742839</v>
+            <v>-3.3401373465809465</v>
           </cell>
           <cell r="U5">
-            <v>-8.7449517825832856</v>
+            <v>-2.914983927527762</v>
           </cell>
           <cell r="V5">
-            <v>-8.9216174751607245</v>
+            <v>-2.9738724917202419</v>
           </cell>
           <cell r="W5">
-            <v>-11.872925189947399</v>
+            <v>-3.9576417299824667</v>
           </cell>
           <cell r="X5">
-            <v>-14.30249123319696</v>
+            <v>-4.7674970777323207</v>
           </cell>
           <cell r="Y5">
-            <v>-15.325336060783169</v>
+            <v>-5.1084453535943899</v>
           </cell>
         </row>
         <row r="6">
@@ -13082,150 +13082,150 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-1.1200557809330629</v>
+            <v>-0.37335192697768765</v>
           </cell>
           <cell r="C4">
-            <v>-2.6527636916835697</v>
+            <v>-0.88425456389452317</v>
           </cell>
           <cell r="D4">
-            <v>-4.6275988843813387</v>
+            <v>-1.5425329614604462</v>
           </cell>
           <cell r="E4">
-            <v>-4.3166360294117654</v>
+            <v>-1.4388786764705883</v>
           </cell>
           <cell r="F4">
-            <v>-4.3186992900608514</v>
+            <v>-1.4395664300202837</v>
           </cell>
           <cell r="G4">
-            <v>-4.1975564148073028</v>
+            <v>-1.3991854716024341</v>
           </cell>
           <cell r="H4">
-            <v>-0.23108519269776878</v>
+            <v>-7.7028397565922932E-2</v>
           </cell>
           <cell r="I4">
-            <v>5.0809267241379308</v>
+            <v>1.6936422413793102</v>
           </cell>
           <cell r="J4">
-            <v>6.6743534482758617</v>
+            <v>2.2247844827586207</v>
           </cell>
           <cell r="K4">
-            <v>6.6024340770791081</v>
+            <v>2.2008113590263694</v>
           </cell>
           <cell r="L4">
-            <v>5.4567349137931043</v>
+            <v>1.8189116379310346</v>
           </cell>
           <cell r="M4">
-            <v>6.9661574543610554</v>
+            <v>2.3220524847870183</v>
           </cell>
           <cell r="N4">
-            <v>6.311219574036512</v>
+            <v>2.1037398580121707</v>
           </cell>
           <cell r="O4">
-            <v>5.4529031440162266</v>
+            <v>1.8176343813387423</v>
           </cell>
           <cell r="P4">
-            <v>3.9593971855983767</v>
+            <v>1.3197990618661257</v>
           </cell>
           <cell r="Q4">
-            <v>2.446437626774848</v>
+            <v>0.81547920892494941</v>
           </cell>
           <cell r="R4">
-            <v>3.0663000760649086</v>
+            <v>1.0221000253549697</v>
           </cell>
           <cell r="S4">
-            <v>2.7388311359026365</v>
+            <v>0.91294371196754553</v>
           </cell>
           <cell r="T4">
-            <v>0.51109913793103445</v>
+            <v>0.17036637931034479</v>
           </cell>
           <cell r="U4">
-            <v>2.1375380324543611</v>
+            <v>0.71251267748478697</v>
           </cell>
           <cell r="V4">
-            <v>3.0347616632860044</v>
+            <v>1.0115872210953347</v>
           </cell>
           <cell r="W4">
-            <v>1.9842672413793103</v>
+            <v>0.66142241379310351</v>
           </cell>
           <cell r="X4">
-            <v>-1.8940732758620686</v>
+            <v>-0.63135775862068955</v>
           </cell>
           <cell r="Y4">
-            <v>-3.840317570993915</v>
+            <v>-1.2801058569979717</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>-17.514669783752193</v>
+            <v>-5.8382232612507305</v>
           </cell>
           <cell r="C5">
-            <v>-17.162989479836355</v>
+            <v>-5.7209964932787853</v>
           </cell>
           <cell r="D5">
-            <v>-17.475043834015199</v>
+            <v>-5.8250146113383998</v>
           </cell>
           <cell r="E5">
-            <v>-18.188310929281126</v>
+            <v>-6.0627703097603751</v>
           </cell>
           <cell r="F5">
-            <v>-18.609336645236706</v>
+            <v>-6.2031122150789022</v>
           </cell>
           <cell r="G5">
-            <v>-18.364976621858567</v>
+            <v>-6.1216588739528559</v>
           </cell>
           <cell r="H5">
-            <v>-16.836075394506139</v>
+            <v>-5.6120251315020466</v>
           </cell>
           <cell r="I5">
-            <v>-11.704514903565169</v>
+            <v>-3.9015049678550562</v>
           </cell>
           <cell r="J5">
-            <v>-8.4997662185856218</v>
+            <v>-2.8332554061952075</v>
           </cell>
           <cell r="K5">
-            <v>-9.1717562828755117</v>
+            <v>-3.0572520942918371</v>
           </cell>
           <cell r="L5">
-            <v>-11.4750146113384</v>
+            <v>-3.8250048704461337</v>
           </cell>
           <cell r="M5">
-            <v>-12.465663354763299</v>
+            <v>-4.155221118254433</v>
           </cell>
           <cell r="N5">
-            <v>-11.788720046756282</v>
+            <v>-3.929573348918761</v>
           </cell>
           <cell r="O5">
-            <v>-12.548217416715373</v>
+            <v>-4.1827391389051245</v>
           </cell>
           <cell r="P5">
-            <v>-11.923283167738164</v>
+            <v>-3.9744277225793883</v>
           </cell>
           <cell r="Q5">
-            <v>-13.672603740502629</v>
+            <v>-4.5575345801675429</v>
           </cell>
           <cell r="R5">
-            <v>-15.9989772063121</v>
+            <v>-5.3329924021040336</v>
           </cell>
           <cell r="S5">
-            <v>-13.951636469900642</v>
+            <v>-4.6505454899668806</v>
           </cell>
           <cell r="T5">
-            <v>-9.6274547048509636</v>
+            <v>-3.2091515682836547</v>
           </cell>
           <cell r="U5">
-            <v>-8.9216174751607245</v>
+            <v>-2.9738724917202419</v>
           </cell>
           <cell r="V5">
-            <v>-8.7449517825832856</v>
+            <v>-2.914983927527762</v>
           </cell>
           <cell r="W5">
-            <v>-11.523721507890123</v>
+            <v>-3.8412405026300411</v>
           </cell>
           <cell r="X5">
-            <v>-14.591430450029224</v>
+            <v>-4.8638101500097415</v>
           </cell>
           <cell r="Y5">
-            <v>-14.874590882524839</v>
+            <v>-4.9581969608416134</v>
           </cell>
         </row>
         <row r="6">
@@ -14930,99 +14930,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>-3.5121597591012867</v>
+        <v>-1.170719919700429</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>-3.7521094783952016</v>
+        <v>-1.250703159465067</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>-3.8591407285923847</v>
+        <v>-1.2863802428641282</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>-3.8075310313587249</v>
+        <v>-1.2691770104529083</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>-3.8106978565334972</v>
+        <v>-1.270232618844499</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>-3.2136017614370433</v>
+        <v>-1.0712005871456811</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>-0.11849177117617755</v>
+        <v>-3.9497257058725851E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>1.6568251919422758</v>
+        <v>0.55227506398075865</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>2.09095217812312</v>
+        <v>0.69698405937437324</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>1.4133410735615102</v>
+        <v>0.47111369118717006</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>0.86852904699943101</v>
+        <v>0.28950968233314367</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>1.6720947336659322</v>
+        <v>0.5573649112219774</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>1.0862889343225988</v>
+        <v>0.36209631144086629</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>0.32957266628690735</v>
+        <v>0.10985755542896911</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.2910836248710849</v>
+        <v>-0.43036120829036162</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>-1.3044214722789629</v>
+        <v>-0.43480715742632098</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>-1.0745284531208212</v>
+        <v>-0.35817615104027373</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>-0.52081994701250633</v>
+        <v>-0.17360664900416878</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>-1.2952793875280915</v>
+        <v>-0.43175979584269714</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>-0.72325379880794016</v>
+        <v>-0.24108459960264672</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>-1.0132539528842157</v>
+        <v>-0.33775131762807192</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>-1.6469869388051872</v>
+        <v>-0.5489956462683957</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>-2.6551144637448876</v>
+        <v>-0.88503815458162916</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>-2.9372504692460302</v>
+        <v>-0.97908348974867665</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15031,99 +15031,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
-        <v>-9.1456950836814936</v>
+        <v>-3.0485650278938312</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
-        <v>-9.1431049784535201</v>
+        <v>-3.0477016594845066</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
-        <v>-9.3306453916044685</v>
+        <v>-3.1102151305348227</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
-        <v>-9.3172602081256457</v>
+        <v>-3.1057534027085487</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
-        <v>-9.549737685342107</v>
+        <v>-3.1832458951140357</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
-        <v>-8.9054630882025538</v>
+        <v>-2.9684876960675184</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
-        <v>-7.5749384863233402</v>
+        <v>-2.5249794954411136</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
-        <v>-6.9850575970579838</v>
+        <v>-2.3283525323526617</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
-        <v>-7.2608028388967929</v>
+        <v>-2.4202676129655978</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
-        <v>-8.0435991351970504</v>
+        <v>-2.6811997117323498</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
-        <v>-8.3270381295555307</v>
+        <v>-2.7756793765185104</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
-        <v>-9.0841752470792247</v>
+        <v>-3.0280584156930748</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
-        <v>-9.0057561815763396</v>
+        <v>-3.0019187271921135</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
-        <v>-8.9897433153239117</v>
+        <v>-2.9965811051079703</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
-        <v>-8.9771753446082059</v>
+        <v>-2.9923917815360692</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
-        <v>-8.8871213689099839</v>
+        <v>-2.9623737896366613</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
-        <v>-7.3730304148132113</v>
+        <v>-2.4576768049377371</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
-        <v>-4.3943798845486457</v>
+        <v>-1.4647932948495486</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
-        <v>-5.7259071629761786</v>
+        <v>-1.9086357209920595</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
-        <v>-7.0858957625523518</v>
+        <v>-2.3619652541841174</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
-        <v>-7.5526150645689327</v>
+        <v>-2.5175383548563111</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
-        <v>-7.8305570899184307</v>
+        <v>-2.6101856966394772</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
-        <v>-8.6154407933212074</v>
+        <v>-2.8718135977737358</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
-        <v>-8.4874102794017805</v>
+        <v>-2.8291367598005936</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -16537,99 +16537,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>-3.5121597591012867</v>
+        <v>-1.170719919700429</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>-3.7521094783952016</v>
+        <v>-1.250703159465067</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>-3.8591407285923847</v>
+        <v>-1.2863802428641282</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>-3.769832704315569</v>
+        <v>-1.2566109014385229</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>-3.6975088112899277</v>
+        <v>-1.2325029370966425</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>-3.1505899621931794</v>
+        <v>-1.0501966540643932</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>-0.11849177117617755</v>
+        <v>-3.9497257058725851E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>1.6080950392380915</v>
+        <v>0.5360316797460305</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>2.0702496813100195</v>
+        <v>0.69008322710333991</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>1.4710284643191227</v>
+        <v>0.49034282143970759</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>0.83446908437200229</v>
+        <v>0.27815636145733408</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>1.6720947336659322</v>
+        <v>0.5573649112219774</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>1.0543392597836989</v>
+        <v>0.35144641992789966</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>0.32311045714402681</v>
+        <v>0.10770348571467561</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.2910836248710849</v>
+        <v>-0.43036120829036162</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>-1.2660561348589936</v>
+        <v>-0.42201871161966453</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>-1.042924675087856</v>
+        <v>-0.34764155836261867</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>-0.54207790403342493</v>
+        <v>-0.18069263467780833</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>-1.3211849752786531</v>
+        <v>-0.44039499175955105</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>-0.72325379880794016</v>
+        <v>-0.24108459960264672</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>-0.99298887382653134</v>
+        <v>-0.33099629127551045</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>-1.663792927976669</v>
+        <v>-0.55459764265888967</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>-2.6551144637448876</v>
+        <v>-0.88503815458162916</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>-2.9971943563735004</v>
+        <v>-0.99906478545783339</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -16638,99 +16638,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
-        <v>-9.0533143252604678</v>
+        <v>-3.0177714417534895</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
-        <v>-9.3296989576056326</v>
+        <v>-3.1098996525352112</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
-        <v>-9.2363964482549274</v>
+        <v>-3.078798816084976</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
-        <v>-9.412334291882031</v>
+        <v>-3.1374447639606773</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
-        <v>-9.4542403084886857</v>
+        <v>-3.1514134361628954</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
-        <v>-8.8181546265535093</v>
+        <v>-2.9393848755178364</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
-        <v>-7.650687871186574</v>
+        <v>-2.5502292903955248</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
-        <v>-6.9850575970579838</v>
+        <v>-2.3283525323526617</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
-        <v>-7.1184341557811699</v>
+        <v>-2.3728113852603898</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
-        <v>-7.7281638749932435</v>
+        <v>-2.5760546249977478</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
-        <v>-8.579372618329943</v>
+        <v>-2.8597908727766477</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
-        <v>-8.7279330805270963</v>
+        <v>-2.9093110268423659</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
-        <v>-8.9165902787884548</v>
+        <v>-2.972196759596152</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
-        <v>-9.1713542913910615</v>
+        <v>-3.057118097130354</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
-        <v>-9.2519868347492746</v>
+        <v>-3.083995611583092</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
-        <v>-8.7982501552208845</v>
+        <v>-2.9327500517402951</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
-        <v>-7.598735427511575</v>
+        <v>-2.5329118091705252</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
-        <v>-4.4840611066822911</v>
+        <v>-1.4946870355607638</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
-        <v>-5.7259071629761786</v>
+        <v>-1.9086357209920595</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
-        <v>-6.9455809949770568</v>
+        <v>-2.3151936649923521</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
-        <v>-7.5526150645689327</v>
+        <v>-2.5175383548563111</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
-        <v>-7.9903643774677864</v>
+        <v>-2.6634547924892624</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
-        <v>-8.362045475870584</v>
+        <v>-2.7873484919568612</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
-        <v>-8.6571584849898162</v>
+        <v>-2.8857194949966054</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -25677,99 +25677,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.9430300753963854</v>
+        <v>1.5262571515689101</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.735344356358798</v>
+        <v>1.4640975440736224</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.4333354307572908</v>
+        <v>1.3405313504823155</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.5453345714602511</v>
+        <v>1.3676402594522679</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>3.4351856081605505</v>
+        <v>1.2973377314558157</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.465600898104003</v>
+        <v>1.2844416786783457</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>4.875722391617697</v>
+        <v>1.7832925213438302</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>5.9791575008315787</v>
+        <v>2.0205007761392619</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>6.2600468455482874</v>
+        <v>2.1108202128839118</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>5.8894210278301369</v>
+        <v>1.9983299977824596</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>5.7429860849318111</v>
+        <v>1.9350528329083048</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>6.1795269985585994</v>
+        <v>2.0857388845770042</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>6.4832276028384532</v>
+        <v>2.2023344883024731</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>6.0753990741767385</v>
+        <v>2.1011502661048898</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>5.5580949107439857</v>
+        <v>1.9338017518571908</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>5.2754201685330964</v>
+        <v>1.8382320102006877</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>5.3372362512473668</v>
+        <v>1.8238201297261338</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>5.2275221199689543</v>
+        <v>1.8336453043574679</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>5.0540987360017748</v>
+        <v>1.7381823372879479</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>5.4772528273644534</v>
+        <v>1.8633543907306798</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>5.7637722031267336</v>
+        <v>1.9783608493181066</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>5.3516493236500722</v>
+        <v>1.8191762113316334</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>4.8854714768821372</v>
+        <v>1.7895766991905977</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>4.1607198414458377</v>
+        <v>1.5810962689876931</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -25778,99 +25778,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Pc, Summer, S1'!B5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>4.8004664492078293</v>
+        <v>2.0239830692761727</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Pc, Summer, S1'!C5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.9188308480894687</v>
+        <v>1.7442424666045357</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Pc, Summer, S1'!D5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.1511663560111831</v>
+        <v>1.4425611991301643</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Pc, Summer, S1'!E5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.0913699906803354</v>
+        <v>1.4021808014911463</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Pc, Summer, S1'!F5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.7867437092264677</v>
+        <v>1.2334662938800869</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Pc, Summer, S1'!G5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.6011444547996274</v>
+        <v>1.1255309102205655</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Pc, Summer, S1'!H5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>5.4543508853681262</v>
+        <v>2.1342204100652378</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Pc, Summer, S1'!I5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.0816458527492987</v>
+        <v>3.082111835973905</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Pc, Summer, S1'!J5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>10.993895619757689</v>
+        <v>3.7129077353215285</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Pc, Summer, S1'!K5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>11.289166356011183</v>
+        <v>3.8334347623485558</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Pc, Summer, S1'!L5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>11.041902143522831</v>
+        <v>3.7220823237030132</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Pc, Summer, S1'!M5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.9215852749301003</v>
+        <v>3.3589881950916434</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Pc, Summer, S1'!N5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>11.278249301025161</v>
+        <v>3.8419336750543644</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Pc, Summer, S1'!O5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>10.741798229263745</v>
+        <v>3.7326338925132028</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Pc, Summer, S1'!P5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>9.825090400745573</v>
+        <v>3.4372370301335819</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Pc, Summer, S1'!Q5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>9.0929571295433362</v>
+        <v>3.1905029512270895</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Pc, Summer, S1'!R5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.1724347623485567</v>
+        <v>2.8136276794035417</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Pc, Summer, S1'!S5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>7.4087819198508846</v>
+        <v>2.6518698353525938</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Pc, Summer, S1'!T5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>9.2471211556383963</v>
+        <v>3.1893392357875117</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Pc, Summer, S1'!U5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>10.772176607642125</v>
+        <v>3.6659324324324323</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Pc, Summer, S1'!V5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>12.403369990680337</v>
+        <v>4.2486635601118365</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Pc, Summer, S1'!W5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>11.755459925442683</v>
+        <v>3.9890728487107796</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Pc, Summer, S1'!X5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>9.1913201304753027</v>
+        <v>3.3859457906182051</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Pc, Summer, S1'!Y5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.8150945945945942</v>
+        <v>2.6600775085430257</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -27284,99 +27284,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.8705268876815615</v>
+        <v>1.5020894223306356</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.8034817607273532</v>
+        <v>1.4868100121964742</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.4019433695531665</v>
+        <v>1.3300673300809405</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.5126691567801314</v>
+        <v>1.3567517878922279</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>3.4993210444616922</v>
+        <v>1.3187162102228629</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.4001661215212335</v>
+        <v>1.2626300864840894</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>4.7829494955094809</v>
+        <v>1.7523682226410915</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>6.097917202572348</v>
+        <v>2.060087343386185</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>6.1978084460583212</v>
+        <v>2.0900740797205897</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>5.9477873932808514</v>
+        <v>2.017785452932698</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>5.7429860849318111</v>
+        <v>1.9350528329083052</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>6.0567133551391512</v>
+        <v>2.0448010034371884</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>6.4832276028384532</v>
+        <v>2.2023344883024731</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>5.9561716099345832</v>
+        <v>2.0614077780241713</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>5.5580949107439857</v>
+        <v>1.9338017518571908</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>5.326977990908083</v>
+        <v>1.8554179509923499</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>5.2845350094245491</v>
+        <v>1.8062530491185278</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>5.1257058155006092</v>
+        <v>1.7997065362013529</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>5.0043599900210678</v>
+        <v>1.7216027552943789</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>5.5856697804634674</v>
+        <v>1.8994933750970178</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>5.7069910328196043</v>
+        <v>1.9594337925490635</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>5.4576235170196243</v>
+        <v>1.8545009424548176</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>4.8854714768821372</v>
+        <v>1.7895766991905977</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>4.1994141950327091</v>
+        <v>1.5939943868499837</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27385,99 +27385,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Pc, Summer, S2'!B5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>4.8004664492078293</v>
+        <v>2.0239830692761727</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Pc, Summer, S2'!C5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.9514496738117422</v>
+        <v>1.7551154085119602</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Pc, Summer, S2'!D5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.0999082013047525</v>
+        <v>1.4254751475613543</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Pc, Summer, S2'!E5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.0913699906803354</v>
+        <v>1.4021808014911463</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Pc, Summer, S2'!F5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.7867437092264682</v>
+        <v>1.2334662938800871</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Pc, Summer, S2'!G5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.5790102516309417</v>
+        <v>1.1181528424976703</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Pc, Summer, S2'!H5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>5.5041528424976702</v>
+        <v>2.1508210624417523</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Pc, Summer, S2'!I5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.0816458527492987</v>
+        <v>3.082111835973905</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Pc, Summer, S2'!J5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>10.993895619757689</v>
+        <v>3.7129077353215285</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Pc, Summer, S2'!K5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>11.065494408201303</v>
+        <v>3.7588774464119292</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Pc, Summer, S2'!L5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>10.932104846225533</v>
+        <v>3.6854832246039138</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Pc, Summer, S2'!M5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>10.020024231127678</v>
+        <v>3.3918011804908357</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Pc, Summer, S2'!N5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>11.389794035414724</v>
+        <v>3.8791152531842186</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Pc, Summer, S2'!O5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>10.846935694315004</v>
+        <v>3.767679714196956</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Pc, Summer, S2'!P5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>9.7292726001863947</v>
+        <v>3.4052977632805224</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Pc, Summer, S2'!Q5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>9.181493942218081</v>
+        <v>3.2200152221186711</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Pc, Summer, S2'!R5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.2528168685927312</v>
+        <v>2.8404217148182669</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Pc, Summer, S2'!S5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>7.3374282385834109</v>
+        <v>2.6280852749301027</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Pc, Summer, S2'!T5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>9.2471211556383963</v>
+        <v>3.1893392357875117</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Pc, Summer, S2'!U5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>10.665582945013979</v>
+        <v>3.630401211556384</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Pc, Summer, S2'!V5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>12.281049394221808</v>
+        <v>4.2078900279589933</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Pc, Summer, S2'!W5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>11.871955731593662</v>
+        <v>4.0279047840944395</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Pc, Summer, S2'!X5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>9.1913201304753045</v>
+        <v>3.3859457906182051</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Pc, Summer, S2'!Y5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.8774198508853672</v>
+        <v>2.6808525939732837</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -28891,99 +28891,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.979281669253798</v>
+        <v>1.5383410161880475</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.6672069519902428</v>
+        <v>1.4413850759507707</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.4961195531655398</v>
+        <v>1.3614593912850652</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.5779999861403708</v>
+        <v>1.3785287310123073</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>3.4031178900099794</v>
+        <v>1.286648492072292</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.4001661215212327</v>
+        <v>1.2626300864840891</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>4.9684952877259132</v>
+        <v>1.8142168200465689</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>6.0385373517019634</v>
+        <v>2.0402940597627235</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>6.1978084460583212</v>
+        <v>2.0900740797205897</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>6.0061537587315668</v>
+        <v>2.0372409080829361</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>5.6287480873711058</v>
+        <v>1.8969735003880697</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>6.3023406419780468</v>
+        <v>2.1266767657168204</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>6.6116543962745329</v>
+        <v>2.245143419447833</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>5.9561716099345832</v>
+        <v>2.0614077780241713</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>5.5037305133606846</v>
+        <v>1.9156802860627569</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>5.3785358132830687</v>
+        <v>1.8726038917840118</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>5.4426387348930039</v>
+        <v>1.8589542909413459</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>5.1257058155006092</v>
+        <v>1.7997065362013529</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>5.1535762279631898</v>
+        <v>1.7713415012750862</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>5.4230443508149468</v>
+        <v>1.845284898547511</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>5.8773345437409921</v>
+        <v>2.0162149628561927</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>5.2456751302805191</v>
+        <v>1.7838514802084491</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>4.9319098985475103</v>
+        <v>1.8050561730790555</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>4.0833311342720933</v>
+        <v>1.5553000332631115</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28992,99 +28992,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Pc, Summer, S3'!B5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>4.8004664492078293</v>
+        <v>2.0239830692761727</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Pc, Summer, S3'!C5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.9514496738117431</v>
+        <v>1.7551154085119605</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Pc, Summer, S3'!D5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.0999082013047525</v>
+        <v>1.4254751475613543</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Pc, Summer, S3'!E5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.1420456663560108</v>
+        <v>1.4190726933830384</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Pc, Summer, S3'!F5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.7634445479962717</v>
+        <v>1.2256999068033552</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Pc, Summer, S3'!G5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.6011444547996274</v>
+        <v>1.1255309102205655</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Pc, Summer, S3'!H5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>5.4543508853681262</v>
+        <v>2.1342204100652378</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Pc, Summer, S3'!I5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>8.9916528424976683</v>
+        <v>3.0521141658900279</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Pc, Summer, S3'!J5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>11.103110438024231</v>
+        <v>3.7493126747437091</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Pc, Summer, S3'!K5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>11.289166356011183</v>
+        <v>3.8334347623485558</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Pc, Summer, S3'!L5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>11.041902143522831</v>
+        <v>3.7220823237030132</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Pc, Summer, S3'!M5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>10.118463187325256</v>
+        <v>3.4246141658900284</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Pc, Summer, S3'!N5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>11.1667045666356</v>
+        <v>3.8047520969245108</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Pc, Summer, S3'!O5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>10.741798229263745</v>
+        <v>3.7326338925132028</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Pc, Summer, S3'!P5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>9.9209082013047531</v>
+        <v>3.469176296986642</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Pc, Summer, S3'!Q5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>9.0044203168685915</v>
+        <v>3.1609906803355083</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Pc, Summer, S3'!R5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.0920526561043804</v>
+        <v>2.7868336439888166</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Pc, Summer, S3'!S5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>7.3374282385834109</v>
+        <v>2.6280852749301027</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Pc, Summer, S3'!T5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>9.0653876980428709</v>
+        <v>3.1287614165890028</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Pc, Summer, S3'!U5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>10.772176607642125</v>
+        <v>3.6659324324324323</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Pc, Summer, S3'!V5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>12.525690587138865</v>
+        <v>4.289437092264679</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Pc, Summer, S3'!W5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>11.988451537744639</v>
+        <v>4.066736719478099</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Pc, Summer, S3'!X5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>9.1913201304753027</v>
+        <v>3.3859457906182051</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Pc, Summer, S3'!Y5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.7527693383038203</v>
+        <v>2.6393024231127682</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -30498,99 +30498,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-0.56002789046653145</v>
+        <v>-0.18667596348884383</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-1.3263818458417849</v>
+        <v>-0.44212728194726159</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-2.3137994421906694</v>
+        <v>-0.77126648073022308</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-2.1369485294117649</v>
+        <v>-0.71231617647058831</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-2.1811612576064907</v>
+        <v>-0.72705375253549698</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-2.0779982251521303</v>
+        <v>-0.69266607505070998</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-0.11790060851926978</v>
+        <v>-3.9300202839756597E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>2.4906503549695738</v>
+        <v>0.83021678498985796</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>3.2717418864097358</v>
+        <v>1.0905806288032454</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>3.3012170385395541</v>
+        <v>1.1004056795131847</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>2.755926724137931</v>
+        <v>0.91864224137931039</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>3.4485927991886407</v>
+        <v>1.1495309330628802</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>3.1243661257606492</v>
+        <v>1.0414553752535498</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>2.7264515720081133</v>
+        <v>0.90881719066937117</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>1.9600976166328599</v>
+        <v>0.65336587221095332</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>1.223218813387424</v>
+        <v>0.4077396044624747</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>1.5179703346855984</v>
+        <v>0.50599011156186613</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>1.3558569979716024</v>
+        <v>0.45195233265720081</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>0.25053879310344823</v>
+        <v>8.3512931034482749E-2</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>1.0905806288032454</v>
+        <v>0.36352687626774849</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>1.5327079107505071</v>
+        <v>0.51090263691683568</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>1.0021551724137931</v>
+        <v>0.33405172413793105</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-0.9284672920892495</v>
+        <v>-0.30948909736308317</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-1.9011473123732252</v>
+        <v>-0.63371577079107511</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -30599,99 +30599,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Qc, Summer, S1'!B5*Main!$B$5)</f>
-        <v>-8.5856224430157813</v>
+        <v>-2.8618741476719269</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Qc, Summer, S1'!C5*Main!$B$5)</f>
-        <v>-8.668176504967855</v>
+        <v>-2.8893921683226185</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Qc, Summer, S1'!D5*Main!$B$5)</f>
-        <v>-8.9158386908240796</v>
+        <v>-2.9719462302746935</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Qc, Summer, S1'!E5*Main!$B$5)</f>
-        <v>-8.9158386908240796</v>
+        <v>-2.9719462302746935</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Qc, Summer, S1'!F5*Main!$B$5)</f>
-        <v>-9.1222238457042675</v>
+        <v>-3.0407412819014223</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Qc, Summer, S1'!G5*Main!$B$5)</f>
-        <v>-9.3698860315604922</v>
+        <v>-3.1232953438534974</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Qc, Summer, S1'!H5*Main!$B$5)</f>
-        <v>-8.5030683810637058</v>
+        <v>-2.8343561270212354</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Qc, Summer, S1'!I5*Main!$B$5)</f>
-        <v>-5.7375073056692001</v>
+        <v>-1.9125024352230668</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Qc, Summer, S1'!J5*Main!$B$5)</f>
-        <v>-4.2928112215078906</v>
+        <v>-1.4309370738359635</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Qc, Summer, S1'!K5*Main!$B$5)</f>
-        <v>-4.5404734073641144</v>
+        <v>-1.5134911357880383</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Qc, Summer, S1'!L5*Main!$B$5)</f>
-        <v>-5.7375073056692001</v>
+        <v>-1.9125024352230668</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Qc, Summer, S1'!M5*Main!$B$5)</f>
-        <v>-6.2328316773816494</v>
+        <v>-2.0776105591272165</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Qc, Summer, S1'!N5*Main!$B$5)</f>
-        <v>-5.7787843366452361</v>
+        <v>-1.9262614455484122</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Qc, Summer, S1'!O5*Main!$B$5)</f>
-        <v>-6.2741087083576863</v>
+        <v>-2.0913695694525622</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Qc, Summer, S1'!P5*Main!$B$5)</f>
-        <v>-5.9026154295733493</v>
+        <v>-1.9675384765244499</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Qc, Summer, S1'!Q5*Main!$B$5)</f>
-        <v>-6.9758182349503208</v>
+        <v>-2.3252727449834403</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Qc, Summer, S1'!R5*Main!$B$5)</f>
-        <v>-7.8426358854471072</v>
+        <v>-2.6142119618157027</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Qc, Summer, S1'!S5*Main!$B$5)</f>
-        <v>-6.9758182349503208</v>
+        <v>-2.3252727449834403</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Qc, Summer, S1'!T5*Main!$B$5)</f>
-        <v>-4.9119666861484506</v>
+        <v>-1.6373222287161504</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Qc, Summer, S1'!U5*Main!$B$5)</f>
-        <v>-4.416642314436003</v>
+        <v>-1.472214104812001</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Qc, Summer, S1'!V5*Main!$B$5)</f>
-        <v>-4.416642314436003</v>
+        <v>-1.472214104812001</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Qc, Summer, S1'!W5*Main!$B$5)</f>
-        <v>-5.8200613676212747</v>
+        <v>-1.9400204558737584</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Qc, Summer, S1'!X5*Main!$B$5)</f>
-        <v>-7.2234804208065464</v>
+        <v>-2.4078268069355153</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Qc, Summer, S1'!Y5*Main!$B$5)</f>
-        <v>-7.5124196376388079</v>
+        <v>-2.5041398792129361</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -32105,99 +32105,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-0.57122844827586206</v>
+        <v>-0.19040948275862069</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-1.3529094827586203</v>
+        <v>-0.4509698275862068</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-2.3600754310344825</v>
+        <v>-0.78669181034482749</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-2.1583180147058827</v>
+        <v>-0.71943933823529416</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-2.2247844827586207</v>
+        <v>-0.74159482758620687</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-2.0987782074036514</v>
+        <v>-0.69959273580121706</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-0.11554259634888439</v>
+        <v>-3.8514198782961466E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>2.465743851419878</v>
+        <v>0.82191461713995928</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>3.3371767241379309</v>
+        <v>1.1123922413793104</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>3.3342292089249499</v>
+        <v>1.1114097363083166</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>2.7283674568965521</v>
+        <v>0.9094558189655173</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>3.4141068711967542</v>
+        <v>1.1380356237322513</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>3.0618788032454365</v>
+        <v>1.0206262677484788</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>2.6719225405679508</v>
+        <v>0.89064084685598366</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>1.9404966404665314</v>
+        <v>0.64683221348884379</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>1.2354510015212983</v>
+        <v>0.41181700050709946</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>1.5179703346855984</v>
+        <v>0.50599011156186613</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>1.3558569979716024</v>
+        <v>0.45195233265720081</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>0.25554956896551723</v>
+        <v>8.5183189655172395E-2</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>1.0796748225152129</v>
+        <v>0.35989160750507093</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>1.5327079107505071</v>
+        <v>0.51090263691683568</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>1.0121767241379311</v>
+        <v>0.33739224137931034</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-0.93775196501014202</v>
+        <v>-0.31258398833671397</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-1.9391702586206898</v>
+        <v>-0.64639008620689664</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -32206,99 +32206,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
-        <v>-8.7573348918760967</v>
+        <v>-2.9191116306253653</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
-        <v>-8.7548582700175341</v>
+        <v>-2.9182860900058447</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
-        <v>-8.8266803039158397</v>
+        <v>-2.9422267679719467</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
-        <v>-9.0941554646405631</v>
+        <v>-3.0313851548801876</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
-        <v>-8.9397793687901803</v>
+        <v>-2.9799264562633936</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
-        <v>-9.2761871712448869</v>
+        <v>-3.0920623904149624</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
-        <v>-8.588099064874342</v>
+        <v>-2.8626996882914479</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
-        <v>-5.6227571595558157</v>
+        <v>-1.8742523865186054</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
-        <v>-4.206954997077732</v>
+        <v>-1.4023183323592443</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
-        <v>-4.6312828755113973</v>
+        <v>-1.5437609585037992</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
-        <v>-5.8522574517825845</v>
+        <v>-1.9507524839275281</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
-        <v>-6.1705033606078326</v>
+        <v>-2.0568344535359442</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
-        <v>-5.663208649912332</v>
+        <v>-1.8877362166374443</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
-        <v>-6.2113676212741087</v>
+        <v>-2.0704558737580365</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
-        <v>-5.9026154295733493</v>
+        <v>-1.9675384765244499</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
-        <v>-7.1153345996493274</v>
+        <v>-2.3717781998831096</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
-        <v>-7.6857831677381654</v>
+        <v>-2.5619277225793886</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
-        <v>-7.1153345996493274</v>
+        <v>-2.3717781998831096</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
-        <v>-5.0102060198714193</v>
+        <v>-1.6700686732904733</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
-        <v>-4.3724758912916428</v>
+        <v>-1.457491963763881</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
-        <v>-4.4608087375803622</v>
+        <v>-1.486936245860121</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
-        <v>-5.9364625949736993</v>
+        <v>-1.9788208649912333</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
-        <v>-7.1512456165984801</v>
+        <v>-2.3837485388661603</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
-        <v>-7.6626680303915844</v>
+        <v>-2.5542226767971949</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -33712,99 +33712,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-0.56002789046653145</v>
+        <v>-0.18667596348884383</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-1.3263818458417849</v>
+        <v>-0.44212728194726159</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-2.3137994421906694</v>
+        <v>-0.77126648073022308</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-2.1583180147058827</v>
+        <v>-0.71943933823529416</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-2.1593496450304257</v>
+        <v>-0.71978321501014186</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-2.0987782074036514</v>
+        <v>-0.69959273580121706</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-0.11554259634888439</v>
+        <v>-3.8514198782961466E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>2.5404633620689654</v>
+        <v>0.84682112068965509</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>3.3371767241379309</v>
+        <v>1.1123922413793104</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>3.3012170385395541</v>
+        <v>1.1004056795131847</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>2.7283674568965521</v>
+        <v>0.9094558189655173</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>3.4830787271805277</v>
+        <v>1.1610262423935092</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>3.155609787018256</v>
+        <v>1.0518699290060853</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>2.7264515720081133</v>
+        <v>0.90881719066937117</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>1.9796985927991884</v>
+        <v>0.65989953093306286</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>1.223218813387424</v>
+        <v>0.4077396044624747</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>1.5331500380324543</v>
+        <v>0.51105001267748484</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>1.3694155679513182</v>
+        <v>0.45647185598377277</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>0.25554956896551723</v>
+        <v>8.5183189655172395E-2</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>1.0687690162271806</v>
+        <v>0.35625633874239349</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>1.5173808316430022</v>
+        <v>0.50579361054766736</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>0.99213362068965516</v>
+        <v>0.33071120689655176</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-0.94703663793103432</v>
+        <v>-0.31567887931034477</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-1.9201587854969575</v>
+        <v>-0.64005292849898587</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -33813,99 +33813,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
-        <v>-8.7573348918760967</v>
+        <v>-2.9191116306253653</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
-        <v>-8.5814947399181776</v>
+        <v>-2.8604982466393927</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
-        <v>-8.7375219170075997</v>
+        <v>-2.9125073056691999</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
-        <v>-9.0941554646405631</v>
+        <v>-3.0313851548801876</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
-        <v>-9.3046683226183529</v>
+        <v>-3.1015561075394511</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
-        <v>-9.1824883109292834</v>
+        <v>-3.060829436976428</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
-        <v>-8.4180376972530695</v>
+        <v>-2.8060125657510233</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
-        <v>-5.8522574517825845</v>
+        <v>-1.9507524839275281</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
-        <v>-4.2498831092928109</v>
+        <v>-1.4166277030976038</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
-        <v>-4.5858781414377559</v>
+        <v>-1.5286260471459185</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
-        <v>-5.7375073056692001</v>
+        <v>-1.9125024352230668</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
-        <v>-6.2328316773816494</v>
+        <v>-2.0776105591272165</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
-        <v>-5.894360023378141</v>
+        <v>-1.9647866744593805</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
-        <v>-6.2741087083576863</v>
+        <v>-2.0913695694525622</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
-        <v>-5.9616415838690822</v>
+        <v>-1.9872138612896941</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
-        <v>-6.8363018702513143</v>
+        <v>-2.2787672900837714</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
-        <v>-7.9994886031560499</v>
+        <v>-2.6664962010520168</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
-        <v>-6.9758182349503208</v>
+        <v>-2.3252727449834403</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
-        <v>-4.8137273524254818</v>
+        <v>-1.6045757841418273</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
-        <v>-4.4608087375803622</v>
+        <v>-1.486936245860121</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
-        <v>-4.3724758912916428</v>
+        <v>-1.457491963763881</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
-        <v>-5.7618607539450615</v>
+        <v>-1.9206202513150206</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
-        <v>-7.2957152250146118</v>
+        <v>-2.4319050750048707</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
-        <v>-7.4372954412624193</v>
+        <v>-2.4790984804208067</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -43393,99 +43393,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.3422239924245201</v>
+        <v>1.325988457244955</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.1720805927740332</v>
+        <v>1.2763429562120341</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.0458188659674441</v>
+        <v>1.2113591622190332</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.088042437041544</v>
+        <v>1.2152095479793652</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>3.0640906499559279</v>
+        <v>1.1736394120542748</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.4360601088655098</v>
+        <v>1.2745947489321814</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>5.473234443058776</v>
+        <v>1.9824632051575233</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>6.1803350103630592</v>
+        <v>2.0875599459830885</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>6.4502003917720625</v>
+        <v>2.1742047282918371</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>6.2640685239750233</v>
+        <v>2.1232124964974215</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>6.0140756515325524</v>
+        <v>2.0254160217752188</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>6.4035040783638193</v>
+        <v>2.1603979111787446</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>5.9622398868609743</v>
+        <v>2.02867191630998</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>5.7321828635448977</v>
+        <v>1.9867448625609432</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>4.9807292356555193</v>
+        <v>1.741346526827702</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>4.9586423692933606</v>
+        <v>1.732639410454109</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>5.1093590430528488</v>
+        <v>1.7478610603279612</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>5.5824434755313082</v>
+        <v>1.9519524228782525</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>5.0566843027044968</v>
+        <v>1.739044192855522</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>5.2278362816674919</v>
+        <v>1.7802155421650259</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>5.1068312553975339</v>
+        <v>1.7593805334083734</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>4.7749193398392578</v>
+        <v>1.6269328833946952</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>4.1643008930626335</v>
+        <v>1.5491865045840965</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>3.7510480342537282</v>
+        <v>1.4445389999236566</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -43494,99 +43494,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Pc, Winter, S1'!B5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.1166464441772455</v>
+        <v>1.4627097342659785</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Pc, Winter, S1'!C5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.2687957840115249</v>
+        <v>1.1942307785785544</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Pc, Winter, S1'!D5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.2008675279643839</v>
+        <v>1.1257949231145647</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Pc, Winter, S1'!E5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.9941870710413132</v>
+        <v>1.0364531616114723</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Pc, Winter, S1'!F5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.9698546458191215</v>
+        <v>0.96116993941097162</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Pc, Winter, S1'!G5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.4750373272565218</v>
+        <v>1.4168285343728637</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Pc, Winter, S1'!H5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.6649247388410791</v>
+        <v>2.5377450278895552</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Pc, Winter, S1'!I5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.7885863060212861</v>
+        <v>2.6510919870645671</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Pc, Winter, S1'!J5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>8.5670495278644463</v>
+        <v>2.903959038023781</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Pc, Winter, S1'!K5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>8.0606562638503796</v>
+        <v>2.7572647316282879</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Pc, Winter, S1'!L5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>7.9485535676200376</v>
+        <v>2.690966131735415</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Pc, Winter, S1'!M5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>7.4075626033123303</v>
+        <v>2.52098063788572</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Pc, Winter, S1'!N5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>7.2642700035654837</v>
+        <v>2.5039405759011388</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Pc, Winter, S1'!O5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>6.9531504935134345</v>
+        <v>2.4697513139297658</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Pc, Winter, S1'!P5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>6.6627053107438323</v>
+        <v>2.3831086667996684</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Pc, Winter, S1'!Q5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>6.8048913562229858</v>
+        <v>2.4278143601203057</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Pc, Winter, S1'!R5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.4207812913867688</v>
+        <v>2.8964098557496127</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Pc, Winter, S1'!S5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>12.771875731647617</v>
+        <v>4.4395677726181715</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Pc, Winter, S1'!T5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>11.396414971829918</v>
+        <v>3.9057705078513516</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Pc, Winter, S1'!U5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>9.6215301122532821</v>
+        <v>3.2823836006361518</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Pc, Winter, S1'!V5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.3646508064169716</v>
+        <v>3.2357571653573811</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Pc, Winter, S1'!W5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.2898096066833258</v>
+        <v>2.8338560757909939</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Pc, Winter, S1'!X5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>6.6080390888339222</v>
+        <v>2.5248521100710777</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Pc, Winter, S1'!Y5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>5.3438581487482173</v>
+        <v>2.169665359927567</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -45000,99 +45000,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.4027110584799067</v>
+        <v>1.3461508125967505</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.2289527218708929</v>
+        <v>1.295300332577654</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.0183019704112182</v>
+        <v>1.202186863700291</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.1442274237134091</v>
+        <v>1.2339378768699869</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>3.0073771128188787</v>
+        <v>1.1547348996752584</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.3712161480675098</v>
+        <v>1.2529800953328483</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>5.5255960116272957</v>
+        <v>1.9999170613470296</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>6.1803350103630583</v>
+        <v>2.0875599459830885</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>6.3219205218676562</v>
+        <v>2.1314447716570348</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>6.2019556835628595</v>
+        <v>2.1025082163600337</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>6.0140756515325524</v>
+        <v>2.0254160217752188</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>6.2762108933482672</v>
+        <v>2.1179668495068937</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>5.8442328477444443</v>
+        <v>1.9893362366044702</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>5.7321828635448977</v>
+        <v>1.9867448625609432</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>4.9807292356555193</v>
+        <v>1.741346526827702</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>5.0070324136759492</v>
+        <v>1.7487694252483053</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>5.0085141035711018</v>
+        <v>1.714246080500712</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>5.636900841321105</v>
+        <v>1.970104878141518</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>4.9571550994090288</v>
+        <v>1.7058677917570324</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>5.2278362816674919</v>
+        <v>1.7802155421650259</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>5.0566194945676974</v>
+        <v>1.7426432797984277</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>4.6804797461459211</v>
+        <v>1.5954530188302496</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>4.0858474614082771</v>
+        <v>1.523035360699311</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>3.82024330528363</v>
+        <v>1.4676040902669572</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -45101,99 +45101,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Pc, Winter, S2'!B5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.0918373935285759</v>
+        <v>1.4544400507164221</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Pc, Winter, S2'!C5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.2687957840115254</v>
+        <v>1.1942307785785546</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Pc, Winter, S2'!D5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.1847414388916366</v>
+        <v>1.1204195600903155</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Pc, Winter, S2'!E5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.9941870710413132</v>
+        <v>1.0364531616114723</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Pc, Winter, S2'!F5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.000115187011366</v>
+        <v>0.97125678647505309</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Pc, Winter, S2'!G5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.5059104591497765</v>
+        <v>1.4271195783372819</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Pc, Winter, S2'!H5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.541109347512533</v>
+        <v>2.4964732307800399</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Pc, Winter, S2'!I5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.634461476452584</v>
+        <v>2.5997170438749997</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Pc, Winter, S2'!J5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>8.651995885212056</v>
+        <v>2.9322744904729841</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Pc, Winter, S2'!K5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>8.219758009817042</v>
+        <v>2.8102986469505091</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Pc, Winter, S2'!L5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.1062811906965759</v>
+        <v>2.7435420060942608</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Pc, Winter, S2'!M5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>7.260965144349532</v>
+        <v>2.4721148182314536</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Pc, Winter, S2'!N5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>7.4070798863954135</v>
+        <v>2.5515438701777819</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Pc, Winter, S2'!O5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>6.9531504935134345</v>
+        <v>2.4697513139297658</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Pc, Winter, S2'!P5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>6.791093210062157</v>
+        <v>2.4259046332391097</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Pc, Winter, S2'!Q5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>6.7392352012814447</v>
+        <v>2.4059289751397923</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Pc, Winter, S2'!R5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.2550501483176557</v>
+        <v>2.8411661413932414</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Pc, Winter, S2'!S5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>12.521906492876733</v>
+        <v>4.3562446930278771</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Pc, Winter, S2'!T5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>11.17169563791056</v>
+        <v>3.8308640632115658</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Pc, Winter, S2'!U5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>9.6215301122532821</v>
+        <v>3.2823836006361518</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Pc, Winter, S2'!V5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.548517615648759</v>
+        <v>3.2970461017679771</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Pc, Winter, S2'!W5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.2898096066833258</v>
+        <v>2.8338560757909939</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Pc, Winter, S2'!X5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>6.6692868935153644</v>
+        <v>2.5452680449648915</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Pc, Winter, S2'!Y5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>5.4390839324128359</v>
+        <v>2.2014072878157731</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -46607,99 +46607,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.3422239924245201</v>
+        <v>1.325988457244955</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.1152084636771731</v>
+        <v>1.2573855798464142</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.0183019704112182</v>
+        <v>1.202186863700291</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.1161349303774766</v>
+        <v>1.2245737124246761</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>3.0924474185244528</v>
+        <v>1.1830916682437831</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.3712161480675098</v>
+        <v>1.2529800953328483</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>5.3685113059217393</v>
+        <v>1.947555492778511</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>6.1803350103630583</v>
+        <v>2.0875599459830885</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>6.3860604568198589</v>
+        <v>2.1528247499744357</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>6.1398428431506957</v>
+        <v>2.0818039362226455</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>6.0140756515325524</v>
+        <v>2.0254160217752188</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>6.2762108933482672</v>
+        <v>2.1179668495068937</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>5.8442328477444443</v>
+        <v>1.9893362366044702</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>5.7883644335596562</v>
+        <v>2.0054720525658625</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>5.0293199762879368</v>
+        <v>1.7575434403718411</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>5.0554224580585378</v>
+        <v>1.7648994400425015</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>5.0085141035711018</v>
+        <v>1.714246080500712</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>5.4735287439517171</v>
+        <v>1.915647512351722</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>5.1562135059999665</v>
+        <v>1.7722205939540119</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>5.3312649038525652</v>
+        <v>1.8146917495600505</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>5.1068312553975339</v>
+        <v>1.7593805334083734</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>4.8221391366859256</v>
+        <v>1.6426728156769179</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>4.0858474614082771</v>
+        <v>1.523035360699311</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>3.7510480342537282</v>
+        <v>1.4445389999236566</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -46708,99 +46708,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Pc, Winter, S3'!B5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.0918373935285759</v>
+        <v>1.4544400507164221</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Pc, Winter, S3'!C5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.3010327341745143</v>
+        <v>1.2049764286328841</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Pc, Winter, S3'!D5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.1847414388916366</v>
+        <v>1.1204195600903155</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Pc, Winter, S3'!E5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.9654550537584181</v>
+        <v>1.0268758225171739</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Pc, Winter, S3'!F5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.000115187011366</v>
+        <v>0.97125678647505309</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Pc, Winter, S3'!G5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.413291063470012</v>
+        <v>1.396246446444027</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Pc, Winter, S3'!H5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.7887401301696251</v>
+        <v>2.5790168249990706</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Pc, Winter, S3'!I5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.9427111355899873</v>
+        <v>2.7024669302541344</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Pc, Winter, S3'!J5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>8.651995885212056</v>
+        <v>2.9322744904729841</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Pc, Winter, S3'!K5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>8.0606562638503796</v>
+        <v>2.7572647316282879</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Pc, Winter, S3'!L5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>7.9485535676200376</v>
+        <v>2.690966131735415</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Pc, Winter, S3'!M5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>7.260965144349532</v>
+        <v>2.4721148182314536</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Pc, Winter, S3'!N5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>7.4070798863954135</v>
+        <v>2.5515438701777819</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Pc, Winter, S3'!O5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>6.8186485181259231</v>
+        <v>2.4249173221339291</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Pc, Winter, S3'!P5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>6.791093210062157</v>
+        <v>2.4259046332391097</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Pc, Winter, S3'!Q5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>6.8048913562229858</v>
+        <v>2.4278143601203057</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Pc, Winter, S3'!R5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.3379157198522122</v>
+        <v>2.8687879985714266</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Pc, Winter, S3'!S5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>12.896860351033059</v>
+        <v>4.4812293124133191</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Pc, Winter, S3'!T5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>11.508774638789596</v>
+        <v>3.9432237301712445</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Pc, Winter, S3'!U5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>9.4313557169047684</v>
+        <v>3.2189921355199802</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Pc, Winter, S3'!V5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.3646508064169698</v>
+        <v>3.2357571653573807</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Pc, Winter, S3'!W5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.2079703037199394</v>
+        <v>2.806576308136532</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Pc, Winter, S3'!X5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>6.7305346981968075</v>
+        <v>2.5656839798587061</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Pc, Winter, S3'!Y5*Main!$B$5)+(VLOOKUP($A5,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>5.4390839324128359</v>
+        <v>2.2014072878157731</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -48214,99 +48214,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>-3.4773859001002845</v>
+        <v>-1.1591286333667614</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>-3.752109478395202</v>
+        <v>-1.2507031594650673</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>-3.8209314144479056</v>
+        <v>-1.2736438048159684</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>-3.769832704315569</v>
+        <v>-1.2566109014385229</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>-3.7729681747856407</v>
+        <v>-1.2576560582618801</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>-3.1505899621931794</v>
+        <v>-1.0501966540643932</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>-0.11731858532294807</v>
+        <v>-3.9106195107649358E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>1.6243384234728195</v>
+        <v>0.54144614115760648</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>2.0702496813100195</v>
+        <v>0.69008322710333991</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>1.4421847689403164</v>
+        <v>0.4807282563134388</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>0.85149906568571665</v>
+        <v>0.28383302189523885</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>1.6889845794605378</v>
+        <v>0.56299485982017927</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>1.0649891512966656</v>
+        <v>0.3549963837655552</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>0.32311045714402681</v>
+        <v>0.10770348571467561</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.2783006186842425</v>
+        <v>-0.42610020622808087</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>-1.2788445806656501</v>
+        <v>-0.42628152688855003</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>-1.053459267765511</v>
+        <v>-0.3511530892551703</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>-0.53144892552296563</v>
+        <v>-0.17714964184098855</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>-1.2952793875280915</v>
+        <v>-0.43175979584269714</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>-0.73801408041626548</v>
+        <v>-0.24600469347208848</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>-1.0132539528842157</v>
+        <v>-0.33775131762807192</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>-1.6805989171481504</v>
+        <v>-0.56019963904938352</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>-2.6551144637448876</v>
+        <v>-0.88503815458162916</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>-2.9971943563735004</v>
+        <v>-0.99906478545783339</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -48315,99 +48315,99 @@
       </c>
       <c r="B5" s="4">
         <f>('[1]Qc, Winter, S1'!B5*Main!$B$5)</f>
-        <v>-9.2380758421025178</v>
+        <v>-3.0793586140341729</v>
       </c>
       <c r="C5" s="4">
         <f>('[1]Qc, Winter, S1'!C5*Main!$B$5)</f>
-        <v>-9.3296989576056326</v>
+        <v>-3.1098996525352107</v>
       </c>
       <c r="D5" s="4">
         <f>('[1]Qc, Winter, S1'!D5*Main!$B$5)</f>
-        <v>-9.4248943349540077</v>
+        <v>-3.1416314449846694</v>
       </c>
       <c r="E5" s="4">
         <f>('[1]Qc, Winter, S1'!E5*Main!$B$5)</f>
-        <v>-9.5074083756384145</v>
+        <v>-3.169136125212805</v>
       </c>
       <c r="F5" s="4">
         <f>('[1]Qc, Winter, S1'!F5*Main!$B$5)</f>
-        <v>-9.549737685342107</v>
+        <v>-3.1832458951140357</v>
       </c>
       <c r="G5" s="4">
         <f>('[1]Qc, Winter, S1'!G5*Main!$B$5)</f>
-        <v>-8.7308461649044649</v>
+        <v>-2.9102820549681554</v>
       </c>
       <c r="H5" s="4">
         <f>('[1]Qc, Winter, S1'!H5*Main!$B$5)</f>
-        <v>-7.5749384863233402</v>
+        <v>-2.5249794954411136</v>
       </c>
       <c r="I5" s="4">
         <f>('[1]Qc, Winter, S1'!I5*Main!$B$5)</f>
-        <v>-6.9158986109484992</v>
+        <v>-2.3052995369828335</v>
       </c>
       <c r="J5" s="4">
         <f>('[1]Qc, Winter, S1'!J5*Main!$B$5)</f>
-        <v>-7.1184341557811699</v>
+        <v>-2.3728113852603898</v>
       </c>
       <c r="K5" s="4">
         <f>('[1]Qc, Winter, S1'!K5*Main!$B$5)</f>
-        <v>-7.8858815050951465</v>
+        <v>-2.6286271683650488</v>
       </c>
       <c r="L5" s="4">
         <f>('[1]Qc, Winter, S1'!L5*Main!$B$5)</f>
-        <v>-8.4111496258136675</v>
+        <v>-2.8037165419378893</v>
       </c>
       <c r="M5" s="4">
         <f>('[1]Qc, Winter, S1'!M5*Main!$B$5)</f>
-        <v>-8.9060541638031605</v>
+        <v>-2.9686847212677203</v>
       </c>
       <c r="N5" s="4">
         <f>('[1]Qc, Winter, S1'!N5*Main!$B$5)</f>
-        <v>-8.9165902787884548</v>
+        <v>-2.972196759596152</v>
       </c>
       <c r="O5" s="4">
         <f>('[1]Qc, Winter, S1'!O5*Main!$B$5)</f>
-        <v>-9.0805488033574857</v>
+        <v>-3.0268496011191623</v>
       </c>
       <c r="P5" s="4">
         <f>('[1]Qc, Winter, S1'!P5*Main!$B$5)</f>
-        <v>-9.1603830047022523</v>
+        <v>-3.0534610015674177</v>
       </c>
       <c r="Q5" s="4">
         <f>('[1]Qc, Winter, S1'!Q5*Main!$B$5)</f>
-        <v>-8.8871213689099839</v>
+        <v>-2.9623737896366613</v>
       </c>
       <c r="R5" s="4">
         <f>('[1]Qc, Winter, S1'!R5*Main!$B$5)</f>
-        <v>-7.5235004232787874</v>
+        <v>-2.5078334744262625</v>
       </c>
       <c r="S5" s="4">
         <f>('[1]Qc, Winter, S1'!S5*Main!$B$5)</f>
-        <v>-4.4840611066822911</v>
+        <v>-1.4946870355607638</v>
       </c>
       <c r="T5" s="4">
         <f>('[1]Qc, Winter, S1'!T5*Main!$B$5)</f>
-        <v>-5.7837446090668472</v>
+        <v>-1.927914869688949</v>
       </c>
       <c r="U5" s="4">
         <f>('[1]Qc, Winter, S1'!U5*Main!$B$5)</f>
-        <v>-7.015738378764703</v>
+        <v>-2.3385794595882348</v>
       </c>
       <c r="V5" s="4">
         <f>('[1]Qc, Winter, S1'!V5*Main!$B$5)</f>
-        <v>-7.5526150645689327</v>
+        <v>-2.5175383548563111</v>
       </c>
       <c r="W5" s="4">
         <f>('[1]Qc, Winter, S1'!W5*Main!$B$5)</f>
-        <v>-7.9903643774677864</v>
+        <v>-2.6634547924892624</v>
       </c>
       <c r="X5" s="4">
         <f>('[1]Qc, Winter, S1'!X5*Main!$B$5)</f>
-        <v>-8.4465105816874573</v>
+        <v>-2.8155035272291529</v>
       </c>
       <c r="Y5" s="4">
         <f>('[1]Qc, Winter, S1'!Y5*Main!$B$5)</f>
-        <v>-8.4874102794017805</v>
+        <v>-2.8291367598005932</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee18/ieee18_2020.xlsx
+++ b/data/IEEE_9/ieee18/ieee18_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8B228B-43B4-4323-B47E-9D9B7D8F96B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88D5171-3251-4A61-8F9C-281B320E59BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1200" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="1200" windowWidth="21600" windowHeight="12660" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1664,76 +1664,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>4.7245060930751102</v>
+            <v>2.3622530465375551</v>
           </cell>
           <cell r="C15">
-            <v>4.4403606464747059</v>
+            <v>2.2201803232373529</v>
           </cell>
           <cell r="D15">
-            <v>4.3082091499339352</v>
+            <v>2.1541045749669676</v>
           </cell>
           <cell r="E15">
-            <v>4.3531821128073052</v>
+            <v>2.1765910564036526</v>
           </cell>
           <cell r="F15">
-            <v>4.3895729064349203</v>
+            <v>2.1947864532174601</v>
           </cell>
           <cell r="G15">
-            <v>4.8532159104239483</v>
+            <v>2.4266079552119741</v>
           </cell>
           <cell r="H15">
-            <v>6.2250945801075321</v>
+            <v>3.1125472900537661</v>
           </cell>
           <cell r="I15">
-            <v>7.2354250480605797</v>
+            <v>3.6177125240302899</v>
           </cell>
           <cell r="J15">
-            <v>7.492664465582183</v>
+            <v>3.7463322327910915</v>
           </cell>
           <cell r="K15">
-            <v>7.5061902869309129</v>
+            <v>3.7530951434654565</v>
           </cell>
           <cell r="L15">
-            <v>7.6271548627206363</v>
+            <v>3.8135774313603181</v>
           </cell>
           <cell r="M15">
-            <v>7.6331677622359813</v>
+            <v>3.8165838811179906</v>
           </cell>
           <cell r="N15">
-            <v>7.4696010485969326</v>
+            <v>3.7348005242984663</v>
           </cell>
           <cell r="O15">
-            <v>7.2316671985491734</v>
+            <v>3.6158335992745867</v>
           </cell>
           <cell r="P15">
-            <v>6.7602061052073834</v>
+            <v>3.3801030526036917</v>
           </cell>
           <cell r="Q15">
-            <v>6.7695995295169551</v>
+            <v>3.3847997647584775</v>
           </cell>
           <cell r="R15">
-            <v>7.1946848851283383</v>
+            <v>3.5973424425641691</v>
           </cell>
           <cell r="S15">
-            <v>8.0535088754840665</v>
+            <v>4.0267544377420332</v>
           </cell>
           <cell r="T15">
-            <v>7.6668868649285162</v>
+            <v>3.8334434324642581</v>
           </cell>
           <cell r="U15">
-            <v>7.3131893471402147</v>
+            <v>3.6565946735701074</v>
           </cell>
           <cell r="V15">
-            <v>7.1860104389610235</v>
+            <v>3.5930052194805118</v>
           </cell>
           <cell r="W15">
-            <v>6.786596580026468</v>
+            <v>3.393298290013234</v>
           </cell>
           <cell r="X15">
-            <v>5.946698253809628</v>
+            <v>2.973349126904814</v>
           </cell>
           <cell r="Y15">
-            <v>5.4502887826364788</v>
+            <v>2.7251443913182394</v>
           </cell>
         </row>
         <row r="16">
@@ -2776,76 +2776,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>4.7245060930751102</v>
+            <v>2.3622530465375551</v>
           </cell>
           <cell r="C15">
-            <v>4.5291678594042004</v>
+            <v>2.2645839297021002</v>
           </cell>
           <cell r="D15">
-            <v>4.3082091499339352</v>
+            <v>2.1541045749669676</v>
           </cell>
           <cell r="E15">
-            <v>4.4402457550634518</v>
+            <v>2.2201228775317259</v>
           </cell>
           <cell r="F15">
-            <v>4.4334686354992705</v>
+            <v>2.2167343177496353</v>
           </cell>
           <cell r="G15">
-            <v>4.9017480695281872</v>
+            <v>2.4508740347640936</v>
           </cell>
           <cell r="H15">
-            <v>6.3495964717096838</v>
+            <v>3.1747982358548419</v>
           </cell>
           <cell r="I15">
-            <v>7.3801335490217905</v>
+            <v>3.6900667745108953</v>
           </cell>
           <cell r="J15">
-            <v>7.492664465582183</v>
+            <v>3.7463322327910915</v>
           </cell>
           <cell r="K15">
-            <v>7.3560664811922951</v>
+            <v>3.6780332405961476</v>
           </cell>
           <cell r="L15">
-            <v>7.6271548627206363</v>
+            <v>3.8135774313603181</v>
           </cell>
           <cell r="M15">
-            <v>7.709499439858341</v>
+            <v>3.8547497199291705</v>
           </cell>
           <cell r="N15">
-            <v>7.4696010485969326</v>
+            <v>3.7348005242984663</v>
           </cell>
           <cell r="O15">
-            <v>7.0870338545781886</v>
+            <v>3.5435169272890943</v>
           </cell>
           <cell r="P15">
-            <v>6.692604044155309</v>
+            <v>3.3463020220776545</v>
           </cell>
           <cell r="Q15">
-            <v>6.7695995295169551</v>
+            <v>3.3847997647584775</v>
           </cell>
           <cell r="R15">
-            <v>7.0507911874257703</v>
+            <v>3.5253955937128851</v>
           </cell>
           <cell r="S15">
-            <v>7.9729737867292254</v>
+            <v>3.9864868933646127</v>
           </cell>
           <cell r="T15">
-            <v>7.5902179962792315</v>
+            <v>3.7951089981396158</v>
           </cell>
           <cell r="U15">
-            <v>7.4594531340830184</v>
+            <v>3.7297265670415092</v>
           </cell>
           <cell r="V15">
-            <v>7.1141503345714137</v>
+            <v>3.5570751672857068</v>
           </cell>
           <cell r="W15">
-            <v>6.786596580026468</v>
+            <v>3.393298290013234</v>
           </cell>
           <cell r="X15">
-            <v>5.8277642887334355</v>
+            <v>2.9138821443667178</v>
           </cell>
           <cell r="Y15">
-            <v>5.3957858948101141</v>
+            <v>2.697892947405057</v>
           </cell>
         </row>
         <row r="16">
@@ -3888,76 +3888,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>4.8189962149366128</v>
+            <v>2.4094981074683064</v>
           </cell>
           <cell r="C15">
-            <v>4.3959570400099599</v>
+            <v>2.19797852000498</v>
           </cell>
           <cell r="D15">
-            <v>4.3512912414332749</v>
+            <v>2.1756456207166375</v>
           </cell>
           <cell r="E15">
-            <v>4.3096502916792323</v>
+            <v>2.1548251458396162</v>
           </cell>
           <cell r="F15">
-            <v>4.3895729064349203</v>
+            <v>2.1947864532174601</v>
           </cell>
           <cell r="G15">
-            <v>4.8046837513197094</v>
+            <v>2.4023418756598547</v>
           </cell>
           <cell r="H15">
-            <v>6.2250945801075313</v>
+            <v>3.1125472900537656</v>
           </cell>
           <cell r="I15">
-            <v>7.0907165470993681</v>
+            <v>3.545358273549684</v>
           </cell>
           <cell r="J15">
-            <v>7.3428111762705397</v>
+            <v>3.6714055881352698</v>
           </cell>
           <cell r="K15">
-            <v>7.3560664811922951</v>
+            <v>3.6780332405961476</v>
           </cell>
           <cell r="L15">
-            <v>7.6271548627206363</v>
+            <v>3.8135774313603181</v>
           </cell>
           <cell r="M15">
-            <v>7.7858311174806998</v>
+            <v>3.8929155587403499</v>
           </cell>
           <cell r="N15">
-            <v>7.4696010485969326</v>
+            <v>3.7348005242984663</v>
           </cell>
           <cell r="O15">
-            <v>7.0870338545781886</v>
+            <v>3.5435169272890943</v>
           </cell>
           <cell r="P15">
-            <v>6.692604044155309</v>
+            <v>3.3463020220776545</v>
           </cell>
           <cell r="Q15">
-            <v>6.7019035342217856</v>
+            <v>3.3509517671108928</v>
           </cell>
           <cell r="R15">
-            <v>7.1946848851283383</v>
+            <v>3.5973424425641691</v>
           </cell>
           <cell r="S15">
-            <v>8.2145790529937468</v>
+            <v>4.1072895264968734</v>
           </cell>
           <cell r="T15">
-            <v>7.5902179962792315</v>
+            <v>3.7951089981396158</v>
           </cell>
           <cell r="U15">
-            <v>7.3131893471402147</v>
+            <v>3.6565946735701074</v>
           </cell>
           <cell r="V15">
-            <v>7.1141503345714137</v>
+            <v>3.5570751672857068</v>
           </cell>
           <cell r="W15">
-            <v>6.9223285116269979</v>
+            <v>3.461164255813499</v>
           </cell>
           <cell r="X15">
-            <v>6.0656322188858205</v>
+            <v>3.0328161094429102</v>
           </cell>
           <cell r="Y15">
-            <v>5.3412830069837485</v>
+            <v>2.6706415034918742</v>
           </cell>
         </row>
         <row r="16">
@@ -5000,76 +5000,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>5.0068714265982432</v>
+            <v>2.5034357132991216</v>
           </cell>
           <cell r="C15">
-            <v>5.1249137898040757</v>
+            <v>2.5624568949020379</v>
           </cell>
           <cell r="D15">
-            <v>5.1875837054891685</v>
+            <v>2.5937918527445842</v>
           </cell>
           <cell r="E15">
-            <v>5.2181132039577927</v>
+            <v>2.6090566019788963</v>
           </cell>
           <cell r="F15">
-            <v>5.125012328387955</v>
+            <v>2.5625061641939775</v>
           </cell>
           <cell r="G15">
-            <v>4.9845418350969641</v>
+            <v>2.4922709175484821</v>
           </cell>
           <cell r="H15">
-            <v>4.4174491665639577</v>
+            <v>2.2087245832819788</v>
           </cell>
           <cell r="I15">
-            <v>3.5114611035658303</v>
+            <v>1.7557305517829151</v>
           </cell>
           <cell r="J15">
-            <v>2.8413257647439076</v>
+            <v>1.4206628823719538</v>
           </cell>
           <cell r="K15">
-            <v>2.4477676500267447</v>
+            <v>1.2238838250133723</v>
           </cell>
           <cell r="L15">
-            <v>3.2165101755391845</v>
+            <v>1.6082550877695923</v>
           </cell>
           <cell r="M15">
-            <v>3.1729748313223847</v>
+            <v>1.5864874156611923</v>
           </cell>
           <cell r="N15">
-            <v>2.7928740935858554</v>
+            <v>1.3964370467929277</v>
           </cell>
           <cell r="O15">
-            <v>2.3765566843022699</v>
+            <v>1.1882783421511349</v>
           </cell>
           <cell r="P15">
-            <v>3.2016913445800208</v>
+            <v>1.6008456722900104</v>
           </cell>
           <cell r="Q15">
-            <v>3.8705569077261366</v>
+            <v>1.9352784538630683</v>
           </cell>
           <cell r="R15">
-            <v>3.7113491156119847</v>
+            <v>1.8556745578059923</v>
           </cell>
           <cell r="S15">
-            <v>3.9398426290934316</v>
+            <v>1.9699213145467158</v>
           </cell>
           <cell r="T15">
-            <v>4.0722847224459811</v>
+            <v>2.0361423612229905</v>
           </cell>
           <cell r="U15">
-            <v>4.4205755837853831</v>
+            <v>2.2102877918926915</v>
           </cell>
           <cell r="V15">
-            <v>4.4434814389037776</v>
+            <v>2.2217407194518888</v>
           </cell>
           <cell r="W15">
-            <v>4.7872339124274372</v>
+            <v>2.3936169562137186</v>
           </cell>
           <cell r="X15">
-            <v>5.0033826617993897</v>
+            <v>2.5016913308996949</v>
           </cell>
           <cell r="Y15">
-            <v>4.9528498308033369</v>
+            <v>2.4764249154016684</v>
           </cell>
         </row>
         <row r="16">
@@ -6112,76 +6112,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>5.0068714265982432</v>
+            <v>2.5034357132991216</v>
           </cell>
           <cell r="C15">
-            <v>5.1761629277021166</v>
+            <v>2.5880814638510583</v>
           </cell>
           <cell r="D15">
-            <v>5.2394595425440604</v>
+            <v>2.6197297712720302</v>
           </cell>
           <cell r="E15">
-            <v>5.2181132039577927</v>
+            <v>2.6090566019788963</v>
           </cell>
           <cell r="F15">
-            <v>5.1762624516718336</v>
+            <v>2.5881312258359168</v>
           </cell>
           <cell r="G15">
-            <v>4.9845418350969641</v>
+            <v>2.4922709175484821</v>
           </cell>
           <cell r="H15">
-            <v>4.3732746748983171</v>
+            <v>2.1866373374491586</v>
           </cell>
           <cell r="I15">
-            <v>3.5465757146014889</v>
+            <v>1.7732878573007445</v>
           </cell>
           <cell r="J15">
-            <v>2.8981522800387856</v>
+            <v>1.4490761400193928</v>
           </cell>
           <cell r="K15">
-            <v>2.3988122970262098</v>
+            <v>1.1994061485131049</v>
           </cell>
           <cell r="L15">
-            <v>3.2165101755391845</v>
+            <v>1.6082550877695923</v>
           </cell>
           <cell r="M15">
-            <v>3.2047045796356084</v>
+            <v>1.6023522898178042</v>
           </cell>
           <cell r="N15">
-            <v>2.7649453526499963</v>
+            <v>1.3824726763249982</v>
           </cell>
           <cell r="O15">
-            <v>2.4003222511452926</v>
+            <v>1.2001611255726463</v>
           </cell>
           <cell r="P15">
-            <v>3.2016913445800208</v>
+            <v>1.6008456722900104</v>
           </cell>
           <cell r="Q15">
-            <v>3.8705569077261366</v>
+            <v>1.9352784538630683</v>
           </cell>
           <cell r="R15">
-            <v>3.6371221332997448</v>
+            <v>1.8185610666498724</v>
           </cell>
           <cell r="S15">
-            <v>3.8610457765115633</v>
+            <v>1.9305228882557817</v>
           </cell>
           <cell r="T15">
-            <v>4.1130075696704411</v>
+            <v>2.0565037848352206</v>
           </cell>
           <cell r="U15">
-            <v>4.4205755837853831</v>
+            <v>2.2102877918926915</v>
           </cell>
           <cell r="V15">
-            <v>4.3546118101257019</v>
+            <v>2.1773059050628509</v>
           </cell>
           <cell r="W15">
-            <v>4.8351062515517116</v>
+            <v>2.4175531257758558</v>
           </cell>
           <cell r="X15">
-            <v>4.9533488351813961</v>
+            <v>2.4766744175906981</v>
           </cell>
           <cell r="Y15">
-            <v>5.0519068274194039</v>
+            <v>2.5259534137097019</v>
           </cell>
         </row>
         <row r="16">
@@ -7224,76 +7224,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>5.0569401408642261</v>
+            <v>2.528470070432113</v>
           </cell>
           <cell r="C15">
-            <v>5.1249137898040757</v>
+            <v>2.5624568949020379</v>
           </cell>
           <cell r="D15">
-            <v>5.1875837054891685</v>
+            <v>2.5937918527445842</v>
           </cell>
           <cell r="E15">
-            <v>5.2181132039577927</v>
+            <v>2.6090566019788963</v>
           </cell>
           <cell r="F15">
-            <v>5.1762624516718336</v>
+            <v>2.5881312258359168</v>
           </cell>
           <cell r="G15">
-            <v>5.0343872534479335</v>
+            <v>2.5171936267239667</v>
           </cell>
           <cell r="H15">
-            <v>4.3732746748983171</v>
+            <v>2.1866373374491586</v>
           </cell>
           <cell r="I15">
-            <v>3.5114611035658303</v>
+            <v>1.7557305517829151</v>
           </cell>
           <cell r="J15">
-            <v>2.8697390223913466</v>
+            <v>1.4348695111956733</v>
           </cell>
           <cell r="K15">
-            <v>2.3988122970262098</v>
+            <v>1.1994061485131049</v>
           </cell>
           <cell r="L15">
-            <v>3.1843450737837928</v>
+            <v>1.5921725368918964</v>
           </cell>
           <cell r="M15">
-            <v>3.1412450830091609</v>
+            <v>1.5706225415045805</v>
           </cell>
           <cell r="N15">
-            <v>2.7928740935858554</v>
+            <v>1.3964370467929277</v>
           </cell>
           <cell r="O15">
-            <v>2.3765566843022699</v>
+            <v>1.1882783421511349</v>
           </cell>
           <cell r="P15">
-            <v>3.2016913445800208</v>
+            <v>1.6008456722900104</v>
           </cell>
           <cell r="Q15">
-            <v>3.9092624768033977</v>
+            <v>1.9546312384016988</v>
           </cell>
           <cell r="R15">
-            <v>3.6742356244558643</v>
+            <v>1.8371178122279321</v>
           </cell>
           <cell r="S15">
-            <v>3.9398426290934312</v>
+            <v>1.9699213145467156</v>
           </cell>
           <cell r="T15">
-            <v>4.0315618752215219</v>
+            <v>2.0157809376107609</v>
           </cell>
           <cell r="U15">
-            <v>4.3763698279475296</v>
+            <v>2.1881849139737648</v>
           </cell>
           <cell r="V15">
-            <v>4.3546118101257019</v>
+            <v>2.1773059050628509</v>
           </cell>
           <cell r="W15">
-            <v>4.7872339124274372</v>
+            <v>2.3936169562137186</v>
           </cell>
           <cell r="X15">
-            <v>5.1034503150353769</v>
+            <v>2.5517251575176885</v>
           </cell>
           <cell r="Y15">
-            <v>5.0023783291113704</v>
+            <v>2.5011891645556852</v>
           </cell>
         </row>
         <row r="16">
@@ -8336,76 +8336,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>5.2973966612556165</v>
+            <v>2.6486983306278082</v>
           </cell>
           <cell r="C15">
-            <v>4.9349099598665536</v>
+            <v>2.4674549799332768</v>
           </cell>
           <cell r="D15">
-            <v>4.6883862472362479</v>
+            <v>2.3441931236181239</v>
           </cell>
           <cell r="E15">
-            <v>4.6236373891364719</v>
+            <v>2.311818694568236</v>
           </cell>
           <cell r="F15">
-            <v>4.6358391257563412</v>
+            <v>2.3179195628781706</v>
           </cell>
           <cell r="G15">
-            <v>4.762245821620426</v>
+            <v>2.381122910810213</v>
           </cell>
           <cell r="H15">
-            <v>5.7096870314932815</v>
+            <v>2.8548435157466407</v>
           </cell>
           <cell r="I15">
-            <v>6.9979582929234603</v>
+            <v>3.4989791464617301</v>
           </cell>
           <cell r="J15">
-            <v>7.5080452801035884</v>
+            <v>3.7540226400517942</v>
           </cell>
           <cell r="K15">
-            <v>7.5909063471996934</v>
+            <v>3.7954531735998467</v>
           </cell>
           <cell r="L15">
-            <v>7.6448208267420181</v>
+            <v>3.8224104133710091</v>
           </cell>
           <cell r="M15">
-            <v>7.9218619378432455</v>
+            <v>3.9609309689216228</v>
           </cell>
           <cell r="N15">
-            <v>8.1020162608117339</v>
+            <v>4.0510081304058669</v>
           </cell>
           <cell r="O15">
-            <v>7.8264661279527132</v>
+            <v>3.9132330639763566</v>
           </cell>
           <cell r="P15">
-            <v>7.3240260595529563</v>
+            <v>3.6620130297764781</v>
           </cell>
           <cell r="Q15">
-            <v>7.134668512952671</v>
+            <v>3.5673342564763355</v>
           </cell>
           <cell r="R15">
-            <v>7.158703610292493</v>
+            <v>3.5793518051462465</v>
           </cell>
           <cell r="S15">
-            <v>7.0136273792983568</v>
+            <v>3.5068136896491784</v>
           </cell>
           <cell r="T15">
-            <v>7.0854904457821544</v>
+            <v>3.5427452228910772</v>
           </cell>
           <cell r="U15">
-            <v>7.3988283722106098</v>
+            <v>3.6994141861053049</v>
           </cell>
           <cell r="V15">
-            <v>7.7758575190670154</v>
+            <v>3.8879287595335077</v>
           </cell>
           <cell r="W15">
-            <v>7.176966076586182</v>
+            <v>3.588483038293091</v>
           </cell>
           <cell r="X15">
-            <v>6.3153460517255624</v>
+            <v>3.1576730258627812</v>
           </cell>
           <cell r="Y15">
-            <v>5.7180321465161983</v>
+            <v>2.8590160732580991</v>
           </cell>
         </row>
         <row r="16">
@@ -9448,76 +9448,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>5.2973966612556165</v>
+            <v>2.6486983306278082</v>
           </cell>
           <cell r="C15">
-            <v>4.9349099598665536</v>
+            <v>2.4674549799332768</v>
           </cell>
           <cell r="D15">
-            <v>4.6883862472362479</v>
+            <v>2.3441931236181239</v>
           </cell>
           <cell r="E15">
-            <v>4.6236373891364719</v>
+            <v>2.311818694568236</v>
           </cell>
           <cell r="F15">
-            <v>4.682197517013905</v>
+            <v>2.3410987585069525</v>
           </cell>
           <cell r="G15">
-            <v>4.6670009051880168</v>
+            <v>2.3335004525940084</v>
           </cell>
           <cell r="H15">
-            <v>5.7096870314932815</v>
+            <v>2.8548435157466407</v>
           </cell>
           <cell r="I15">
-            <v>6.9279787099942265</v>
+            <v>3.4639893549971132</v>
           </cell>
           <cell r="J15">
-            <v>7.5831257329046249</v>
+            <v>3.7915628664523124</v>
           </cell>
           <cell r="K15">
-            <v>7.6668154106716901</v>
+            <v>3.8334077053358451</v>
           </cell>
           <cell r="L15">
-            <v>7.7212690350094375</v>
+            <v>3.8606345175047188</v>
           </cell>
           <cell r="M15">
-            <v>7.7634246990863813</v>
+            <v>3.8817123495431907</v>
           </cell>
           <cell r="N15">
-            <v>7.9399759355955002</v>
+            <v>3.9699879677977501</v>
           </cell>
           <cell r="O15">
-            <v>7.8264661279527132</v>
+            <v>3.9132330639763566</v>
           </cell>
           <cell r="P15">
-            <v>7.3240260595529572</v>
+            <v>3.6620130297764786</v>
           </cell>
           <cell r="Q15">
-            <v>7.2773618832117242</v>
+            <v>3.6386809416058621</v>
           </cell>
           <cell r="R15">
-            <v>7.0155295380866436</v>
+            <v>3.5077647690433218</v>
           </cell>
           <cell r="S15">
-            <v>6.8733548317123905</v>
+            <v>3.4366774158561952</v>
           </cell>
           <cell r="T15">
-            <v>7.0854904457821544</v>
+            <v>3.5427452228910772</v>
           </cell>
           <cell r="U15">
-            <v>7.3988283722106098</v>
+            <v>3.6994141861053049</v>
           </cell>
           <cell r="V15">
-            <v>7.6980989438763459</v>
+            <v>3.8490494719381729</v>
           </cell>
           <cell r="W15">
-            <v>7.1051964158203189</v>
+            <v>3.5525982079101595</v>
           </cell>
           <cell r="X15">
-            <v>6.189039130691051</v>
+            <v>3.0945195653455255</v>
           </cell>
           <cell r="Y15">
-            <v>5.7180321465161992</v>
+            <v>2.8590160732580996</v>
           </cell>
         </row>
         <row r="16">
@@ -10560,76 +10560,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>5.3503706278681724</v>
+            <v>2.6751853139340862</v>
           </cell>
           <cell r="C15">
-            <v>4.8362117606692214</v>
+            <v>2.4181058803346107</v>
           </cell>
           <cell r="D15">
-            <v>4.6415023847638857</v>
+            <v>2.3207511923819428</v>
           </cell>
           <cell r="E15">
-            <v>4.5774010152451075</v>
+            <v>2.2887005076225537</v>
           </cell>
           <cell r="F15">
-            <v>4.682197517013905</v>
+            <v>2.3410987585069525</v>
           </cell>
           <cell r="G15">
-            <v>4.6670009051880168</v>
+            <v>2.3335004525940084</v>
           </cell>
           <cell r="H15">
-            <v>5.5954932908634154</v>
+            <v>2.7977466454317077</v>
           </cell>
           <cell r="I15">
-            <v>6.8579991270649909</v>
+            <v>3.4289995635324955</v>
           </cell>
           <cell r="J15">
-            <v>7.4329648273025528</v>
+            <v>3.7164824136512764</v>
           </cell>
           <cell r="K15">
-            <v>7.5149972837276966</v>
+            <v>3.7574986418638483</v>
           </cell>
           <cell r="L15">
-            <v>7.568372618474597</v>
+            <v>3.7841863092372985</v>
           </cell>
           <cell r="M15">
-            <v>8.0010805572216785</v>
+            <v>4.0005402786108393</v>
           </cell>
           <cell r="N15">
-            <v>8.2640565860279693</v>
+            <v>4.1320282930139847</v>
           </cell>
           <cell r="O15">
-            <v>7.9047307892322412</v>
+            <v>3.9523653946161206</v>
           </cell>
           <cell r="P15">
-            <v>7.470506580744015</v>
+            <v>3.7352532903720075</v>
           </cell>
           <cell r="Q15">
-            <v>7.134668512952671</v>
+            <v>3.5673342564763355</v>
           </cell>
           <cell r="R15">
-            <v>7.158703610292493</v>
+            <v>3.5793518051462465</v>
           </cell>
           <cell r="S15">
-            <v>7.1538999268843249</v>
+            <v>3.5769499634421624</v>
           </cell>
           <cell r="T15">
-            <v>7.1563453502399756</v>
+            <v>3.5781726751199878</v>
           </cell>
           <cell r="U15">
-            <v>7.2508518047663975</v>
+            <v>3.6254259023831987</v>
           </cell>
           <cell r="V15">
-            <v>7.8536160942576858</v>
+            <v>3.9268080471288429</v>
           </cell>
           <cell r="W15">
-            <v>7.1051964158203198</v>
+            <v>3.5525982079101599</v>
           </cell>
           <cell r="X15">
-            <v>6.189039130691051</v>
+            <v>3.0945195653455255</v>
           </cell>
           <cell r="Y15">
-            <v>5.6608518250510356</v>
+            <v>2.8304259125255178</v>
           </cell>
         </row>
         <row r="16">
@@ -11672,76 +11672,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>5.1221264367816088</v>
+            <v>2.5610632183908044</v>
           </cell>
           <cell r="C15">
-            <v>5.0107758620689653</v>
+            <v>2.5053879310344827</v>
           </cell>
           <cell r="D15">
-            <v>5.2334770114942533</v>
+            <v>2.6167385057471266</v>
           </cell>
           <cell r="E15">
-            <v>5.3448275862068968</v>
+            <v>2.6724137931034484</v>
           </cell>
           <cell r="F15">
-            <v>5.3448275862068968</v>
+            <v>2.6724137931034484</v>
           </cell>
           <cell r="G15">
-            <v>5.1221264367816088</v>
+            <v>2.5610632183908044</v>
           </cell>
           <cell r="H15">
-            <v>4.5653735632183912</v>
+            <v>2.2826867816091956</v>
           </cell>
           <cell r="I15">
-            <v>4.3426724137931041</v>
+            <v>2.171336206896552</v>
           </cell>
           <cell r="J15">
-            <v>3.3405172413793109</v>
+            <v>1.6702586206896555</v>
           </cell>
           <cell r="K15">
-            <v>2.3383620689655173</v>
+            <v>1.1691810344827587</v>
           </cell>
           <cell r="L15">
-            <v>2.5610632183908049</v>
+            <v>1.2805316091954024</v>
           </cell>
           <cell r="M15">
-            <v>3.1178160919540234</v>
+            <v>1.5589080459770117</v>
           </cell>
           <cell r="N15">
+            <v>1.1135057471264369</v>
+          </cell>
+          <cell r="O15">
+            <v>1.5589080459770117</v>
+          </cell>
+          <cell r="P15">
+            <v>1.7816091954022992</v>
+          </cell>
+          <cell r="Q15">
+            <v>1.7816091954022992</v>
+          </cell>
+          <cell r="R15">
+            <v>1.7816091954022992</v>
+          </cell>
+          <cell r="S15">
+            <v>1.7259339080459772</v>
+          </cell>
+          <cell r="T15">
+            <v>1.6145833333333337</v>
+          </cell>
+          <cell r="U15">
+            <v>2.0043103448275863</v>
+          </cell>
+          <cell r="V15">
+            <v>2.1156609195402303</v>
+          </cell>
+          <cell r="W15">
+            <v>2.3940373563218396</v>
+          </cell>
+          <cell r="X15">
             <v>2.2270114942528738</v>
           </cell>
-          <cell r="O15">
-            <v>3.1178160919540234</v>
-          </cell>
-          <cell r="P15">
-            <v>3.5632183908045985</v>
-          </cell>
-          <cell r="Q15">
-            <v>3.5632183908045985</v>
-          </cell>
-          <cell r="R15">
-            <v>3.5632183908045985</v>
-          </cell>
-          <cell r="S15">
-            <v>3.4518678160919545</v>
-          </cell>
-          <cell r="T15">
-            <v>3.2291666666666674</v>
-          </cell>
-          <cell r="U15">
-            <v>4.0086206896551726</v>
-          </cell>
-          <cell r="V15">
-            <v>4.2313218390804606</v>
-          </cell>
-          <cell r="W15">
-            <v>4.7880747126436791</v>
-          </cell>
-          <cell r="X15">
-            <v>4.4540229885057476</v>
-          </cell>
           <cell r="Y15">
-            <v>4.5653735632183912</v>
+            <v>2.2826867816091956</v>
           </cell>
         </row>
         <row r="16">
@@ -12784,76 +12784,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>5.0709051724137924</v>
+            <v>2.5354525862068962</v>
           </cell>
           <cell r="C15">
-            <v>4.9606681034482758</v>
+            <v>2.4803340517241379</v>
           </cell>
           <cell r="D15">
-            <v>5.2334770114942524</v>
+            <v>2.6167385057471262</v>
           </cell>
           <cell r="E15">
-            <v>5.2913793103448281</v>
+            <v>2.6456896551724141</v>
           </cell>
           <cell r="F15">
-            <v>5.2913793103448281</v>
+            <v>2.6456896551724141</v>
           </cell>
           <cell r="G15">
-            <v>5.1733477011494244</v>
+            <v>2.5866738505747122</v>
           </cell>
           <cell r="H15">
-            <v>4.4740660919540236</v>
+            <v>2.2370330459770118</v>
           </cell>
           <cell r="I15">
-            <v>4.3860991379310352</v>
+            <v>2.1930495689655176</v>
           </cell>
           <cell r="J15">
-            <v>3.3071120689655182</v>
+            <v>1.6535560344827591</v>
           </cell>
           <cell r="K15">
-            <v>2.3383620689655173</v>
+            <v>1.1691810344827587</v>
           </cell>
           <cell r="L15">
-            <v>2.5098419540229888</v>
+            <v>1.2549209770114944</v>
           </cell>
           <cell r="M15">
-            <v>3.0554597701149433</v>
+            <v>1.5277298850574716</v>
           </cell>
           <cell r="N15">
-            <v>2.1824712643678166</v>
+            <v>1.0912356321839083</v>
           </cell>
           <cell r="O15">
-            <v>3.0554597701149433</v>
+            <v>1.5277298850574716</v>
           </cell>
           <cell r="P15">
-            <v>3.6344827586206905</v>
+            <v>1.8172413793103452</v>
           </cell>
           <cell r="Q15">
-            <v>3.6344827586206905</v>
+            <v>1.8172413793103452</v>
           </cell>
           <cell r="R15">
-            <v>3.5275862068965527</v>
+            <v>1.7637931034482763</v>
           </cell>
           <cell r="S15">
-            <v>3.520905172413793</v>
+            <v>1.7604525862068965</v>
           </cell>
           <cell r="T15">
-            <v>3.1968750000000004</v>
+            <v>1.5984375000000002</v>
           </cell>
           <cell r="U15">
-            <v>4.0086206896551726</v>
+            <v>2.0043103448275863</v>
           </cell>
           <cell r="V15">
-            <v>4.1466954022988514</v>
+            <v>2.0733477011494257</v>
           </cell>
           <cell r="W15">
-            <v>4.6923132183908063</v>
+            <v>2.3461566091954031</v>
           </cell>
           <cell r="X15">
-            <v>4.4540229885057485</v>
+            <v>2.2270114942528743</v>
           </cell>
           <cell r="Y15">
-            <v>4.5197198275862078</v>
+            <v>2.2598599137931039</v>
           </cell>
         </row>
         <row r="16">
@@ -13896,76 +13896,76 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>5.0196839080459768</v>
+            <v>2.5098419540229884</v>
           </cell>
           <cell r="C15">
-            <v>4.9606681034482758</v>
+            <v>2.4803340517241379</v>
           </cell>
           <cell r="D15">
-            <v>5.1288074712643672</v>
+            <v>2.5644037356321836</v>
           </cell>
           <cell r="E15">
-            <v>5.3982758620689655</v>
+            <v>2.6991379310344827</v>
           </cell>
           <cell r="F15">
-            <v>5.4517241379310351</v>
+            <v>2.7258620689655175</v>
           </cell>
           <cell r="G15">
-            <v>5.1221264367816088</v>
+            <v>2.5610632183908044</v>
           </cell>
           <cell r="H15">
-            <v>4.6110272988505754</v>
+            <v>2.3055136494252877</v>
           </cell>
           <cell r="I15">
-            <v>4.2558189655172418</v>
+            <v>2.1279094827586209</v>
           </cell>
           <cell r="J15">
-            <v>3.3071120689655182</v>
+            <v>1.6535560344827591</v>
           </cell>
           <cell r="K15">
-            <v>2.3851293103448277</v>
+            <v>1.1925646551724138</v>
           </cell>
           <cell r="L15">
-            <v>2.5098419540229888</v>
+            <v>1.2549209770114944</v>
           </cell>
           <cell r="M15">
-            <v>3.180172413793104</v>
+            <v>1.590086206896552</v>
           </cell>
           <cell r="N15">
+            <v>1.0912356321839083</v>
+          </cell>
+          <cell r="O15">
+            <v>1.5277298850574716</v>
+          </cell>
+          <cell r="P15">
+            <v>1.7994252873563223</v>
+          </cell>
+          <cell r="Q15">
+            <v>1.8172413793103452</v>
+          </cell>
+          <cell r="R15">
+            <v>1.7816091954022992</v>
+          </cell>
+          <cell r="S15">
+            <v>1.7259339080459775</v>
+          </cell>
+          <cell r="T15">
+            <v>1.5984375000000002</v>
+          </cell>
+          <cell r="U15">
+            <v>1.9642241379310346</v>
+          </cell>
+          <cell r="V15">
+            <v>2.1368175287356324</v>
+          </cell>
+          <cell r="W15">
+            <v>2.4419181034482764</v>
+          </cell>
+          <cell r="X15">
             <v>2.1824712643678166</v>
           </cell>
-          <cell r="O15">
-            <v>3.0554597701149433</v>
-          </cell>
-          <cell r="P15">
-            <v>3.5988505747126447</v>
-          </cell>
-          <cell r="Q15">
-            <v>3.6344827586206905</v>
-          </cell>
-          <cell r="R15">
-            <v>3.5632183908045985</v>
-          </cell>
-          <cell r="S15">
-            <v>3.4518678160919549</v>
-          </cell>
-          <cell r="T15">
-            <v>3.1968750000000004</v>
-          </cell>
-          <cell r="U15">
-            <v>3.9284482758620691</v>
-          </cell>
-          <cell r="V15">
-            <v>4.2736350574712647</v>
-          </cell>
-          <cell r="W15">
-            <v>4.8838362068965528</v>
-          </cell>
-          <cell r="X15">
-            <v>4.3649425287356332</v>
-          </cell>
           <cell r="Y15">
-            <v>4.6566810344827596</v>
+            <v>2.3283405172413798</v>
           </cell>
         </row>
         <row r="16">
@@ -14549,7 +14549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -16041,99 +16041,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
-        <v>2.5034357132991216</v>
+        <v>1.2517178566495608</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
-        <v>2.5880814638510583</v>
+        <v>1.2940407319255292</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
-        <v>2.6197297712720302</v>
+        <v>1.3098648856360151</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
-        <v>2.6090566019788963</v>
+        <v>1.3045283009894482</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
-        <v>2.5881312258359168</v>
+        <v>1.2940656129179584</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
-        <v>2.4922709175484821</v>
+        <v>1.246135458774241</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
-        <v>2.1866373374491586</v>
+        <v>1.0933186687245793</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
-        <v>1.7732878573007445</v>
+        <v>0.88664392865037223</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
-        <v>1.4490761400193928</v>
+        <v>0.72453807000969639</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
-        <v>1.1994061485131049</v>
+        <v>0.59970307425655245</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
-        <v>1.6082550877695923</v>
+        <v>0.80412754388479613</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
-        <v>1.6023522898178042</v>
+        <v>0.8011761449089021</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
-        <v>1.3824726763249982</v>
+        <v>0.69123633816249908</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
-        <v>1.2001611255726463</v>
+        <v>0.60008056278632316</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
-        <v>1.6008456722900104</v>
+        <v>0.8004228361450052</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
-        <v>1.9352784538630683</v>
+        <v>0.96763922693153415</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
-        <v>1.8185610666498724</v>
+        <v>0.90928053332493619</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
-        <v>1.9305228882557817</v>
+        <v>0.96526144412789083</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
-        <v>2.0565037848352206</v>
+        <v>1.0282518924176103</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
-        <v>2.2102877918926915</v>
+        <v>1.1051438959463458</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
-        <v>2.1773059050628509</v>
+        <v>1.0886529525314255</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
-        <v>2.4175531257758558</v>
+        <v>1.2087765628879279</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
-        <v>2.4766744175906981</v>
+        <v>1.238337208795349</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
-        <v>2.5259534137097019</v>
+        <v>1.262976706854851</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -17648,99 +17648,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
-        <v>2.528470070432113</v>
+        <v>1.2642350352160565</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
-        <v>2.5624568949020379</v>
+        <v>1.2812284474510189</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
-        <v>2.5937918527445842</v>
+        <v>1.2968959263722921</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
-        <v>2.6090566019788963</v>
+        <v>1.3045283009894482</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
-        <v>2.5881312258359168</v>
+        <v>1.2940656129179584</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
-        <v>2.5171936267239667</v>
+        <v>1.2585968133619834</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
-        <v>2.1866373374491586</v>
+        <v>1.0933186687245793</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
-        <v>1.7557305517829151</v>
+        <v>0.87786527589145757</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
-        <v>1.4348695111956733</v>
+        <v>0.71743475559783665</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
-        <v>1.1994061485131049</v>
+        <v>0.59970307425655245</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
-        <v>1.5921725368918964</v>
+        <v>0.79608626844594821</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
-        <v>1.5706225415045805</v>
+        <v>0.78531127075229024</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
-        <v>1.3964370467929277</v>
+        <v>0.69821852339646384</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
-        <v>1.1882783421511349</v>
+        <v>0.59413917107556746</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
-        <v>1.6008456722900104</v>
+        <v>0.8004228361450052</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
-        <v>1.9546312384016988</v>
+        <v>0.97731561920084942</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
-        <v>1.8371178122279321</v>
+        <v>0.91855890611396607</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
-        <v>1.9699213145467156</v>
+        <v>0.9849606572733578</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
-        <v>2.0157809376107609</v>
+        <v>1.0078904688053805</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
-        <v>2.1881849139737648</v>
+        <v>1.0940924569868824</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
-        <v>2.1773059050628509</v>
+        <v>1.0886529525314255</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
-        <v>2.3936169562137186</v>
+        <v>1.1968084781068593</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
-        <v>2.5517251575176885</v>
+        <v>1.2758625787588442</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
-        <v>2.5011891645556852</v>
+        <v>1.2505945822778426</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -26788,99 +26788,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Pc, Summer, S1'!B15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.8606121237312565</v>
+        <v>1.5362629584173524</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Pc, Summer, S1'!C15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.6864377385539666</v>
+        <v>1.452710248587328</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Pc, Summer, S1'!D15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.5402793305146756</v>
+        <v>1.3681827687056136</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Pc, Summer, S1'!E15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.4976807635337535</v>
+        <v>1.3417714162496353</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Pc, Summer, S1'!F15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.4701954249471361</v>
+        <v>1.3112356435080508</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Pc, Summer, S1'!G15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.5103642901205578</v>
+        <v>1.3198028347154513</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Pc, Summer, S1'!H15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.0128952398845716</v>
+        <v>1.5854734820112515</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Pc, Summer, S1'!I15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.526427422323799</v>
+        <v>1.776937849092934</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Pc, Summer, S1'!J15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.7781605710862771</v>
+        <v>1.9011492510603798</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Pc, Summer, S1'!K15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.8306428287722607</v>
+        <v>1.9329162419723371</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Pc, Summer, S1'!L15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.8431345513020436</v>
+        <v>1.9319293446165391</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Pc, Summer, S1'!M15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.9868275206457606</v>
+        <v>2.0063620361849495</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Pc, Summer, S1'!N15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>4.0922667510955222</v>
+        <v>2.0667626858925887</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Pc, Summer, S1'!O15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.9892503053556672</v>
+        <v>2.0326337733674888</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Pc, Summer, S1'!P15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.74311647805234</v>
+        <v>1.9121099631641012</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Pc, Summer, S1'!Q15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.6470928771659907</v>
+        <v>1.863425748927823</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Pc, Summer, S1'!R15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.6240931844565916</v>
+        <v>1.8344172818834681</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Pc, Summer, S1'!S15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.597951620683661</v>
+        <v>1.8445447758590721</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Pc, Summer, S1'!T15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.5962279815117668</v>
+        <v>1.8248553700662282</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Pc, Summer, S1'!U15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.737017634381167</v>
+        <v>1.8873105413285145</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Pc, Summer, S1'!V15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.9450322078093696</v>
+        <v>2.0010678280426157</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Pc, Summer, S1'!W15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.623776141741367</v>
+        <v>1.8295346225948215</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Pc, Summer, S1'!X15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.3187592327593327</v>
+        <v>1.7399227198279423</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Pc, Summer, S1'!Y15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>3.053205728430513</v>
+        <v>1.6236976918014634</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -28395,99 +28395,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Pc, Summer, S2'!B15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.8606121237312565</v>
+        <v>1.5362629584173524</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Pc, Summer, S2'!C15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.6864377385539666</v>
+        <v>1.452710248587328</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Pc, Summer, S2'!D15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.5402793305146756</v>
+        <v>1.3681827687056136</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Pc, Summer, S2'!E15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.4976807635337535</v>
+        <v>1.3417714162496353</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Pc, Summer, S2'!F15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.493374620575918</v>
+        <v>1.3228252413224417</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Pc, Summer, S2'!G15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.4627418319043533</v>
+        <v>1.2959916056073491</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Pc, Summer, S2'!H15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.0128952398845716</v>
+        <v>1.5854734820112515</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Pc, Summer, S2'!I15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.4914376308591821</v>
+        <v>1.7594429533606255</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Pc, Summer, S2'!J15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.8157007974867954</v>
+        <v>1.9199193642606389</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Pc, Summer, S2'!K15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.8685973605082591</v>
+        <v>1.9518935078403363</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Pc, Summer, S2'!L15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.8813586554357533</v>
+        <v>1.9510413966833939</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Pc, Summer, S2'!M15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.9076089012673285</v>
+        <v>1.9667527264957332</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Pc, Summer, S2'!N15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>4.0112465884874053</v>
+        <v>2.0262526045885303</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Pc, Summer, S2'!O15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.9892503053556672</v>
+        <v>2.0326337733674888</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Pc, Summer, S2'!P15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.7431164780523405</v>
+        <v>1.9121099631641014</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Pc, Summer, S2'!Q15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.7184395622955173</v>
+        <v>1.8990990914925863</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Pc, Summer, S2'!R15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.5525061483536664</v>
+        <v>1.7986237638320057</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Pc, Summer, S2'!S15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.5278153468906779</v>
+        <v>1.8094766389625803</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Pc, Summer, S2'!T15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.5962279815117668</v>
+        <v>1.8248553700662282</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Pc, Summer, S2'!U15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.737017634381167</v>
+        <v>1.8873105413285145</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Pc, Summer, S2'!V15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.9061529202140348</v>
+        <v>1.9816281842449486</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Pc, Summer, S2'!W15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.5878913113584354</v>
+        <v>1.8115922074033557</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Pc, Summer, S2'!X15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.2556057722420775</v>
+        <v>1.7083459895693145</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Pc, Summer, S2'!Y15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>3.0532057284305134</v>
+        <v>1.6236976918014636</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -30002,99 +30002,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Pc, Summer, S3'!B15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.8870991070375345</v>
+        <v>1.5495064500704914</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Pc, Summer, S3'!C15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.6370886389553005</v>
+        <v>1.428035698787995</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Pc, Summer, S3'!D15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.5168373992784945</v>
+        <v>1.3564618030875231</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Pc, Summer, S3'!E15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.4745625765880712</v>
+        <v>1.3302123227767941</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Pc, Summer, S3'!F15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.493374620575918</v>
+        <v>1.3228252413224417</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Pc, Summer, S3'!G15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.4627418319043533</v>
+        <v>1.2959916056073491</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Pc, Summer, S3'!H15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>2.9557983695696386</v>
+        <v>1.556925046853785</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Pc, Summer, S3'!I15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.4564478393945643</v>
+        <v>1.7419480576283166</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Pc, Summer, S3'!J15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.7406203446857593</v>
+        <v>1.8823791378601209</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Pc, Summer, S3'!K15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.7926882970362623</v>
+        <v>1.9139389761043379</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Pc, Summer, S3'!L15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.804910447168333</v>
+        <v>1.9128172925496838</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Pc, Summer, S3'!M15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>4.0264368303349771</v>
+        <v>2.0261666910295575</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Pc, Summer, S3'!N15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>4.1732869137036399</v>
+        <v>2.1072727671966476</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Pc, Summer, S3'!O15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>4.0283826359954311</v>
+        <v>2.0521999386873708</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Pc, Summer, S3'!P15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.8163567386478694</v>
+        <v>1.9487300934618659</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Pc, Summer, S3'!Q15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.6470928771659907</v>
+        <v>1.863425748927823</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Pc, Summer, S3'!R15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.6240931844565916</v>
+        <v>1.8344172818834681</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Pc, Summer, S3'!S15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.6680878944766451</v>
+        <v>1.8796129127555639</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Pc, Summer, S3'!T15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.6316554337406775</v>
+        <v>1.8425690961806835</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Pc, Summer, S3'!U15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.6630293506590608</v>
+        <v>1.8503163994674614</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Pc, Summer, S3'!V15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.9839114954047048</v>
+        <v>2.0205074718402836</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Pc, Summer, S3'!W15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.5878913113584359</v>
+        <v>1.8115922074033559</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Pc, Summer, S3'!X15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.2556057722420775</v>
+        <v>1.7083459895693145</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Pc, Summer, S3'!Y15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>3.0246155676979316</v>
+        <v>1.6094026114351727</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -31609,99 +31609,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Qc, Summer, S1'!B15*Main!$B$5)</f>
-        <v>2.5610632183908044</v>
+        <v>1.2805316091954022</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Qc, Summer, S1'!C15*Main!$B$5)</f>
-        <v>2.5053879310344827</v>
+        <v>1.2526939655172413</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Qc, Summer, S1'!D15*Main!$B$5)</f>
-        <v>2.6167385057471266</v>
+        <v>1.3083692528735633</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Qc, Summer, S1'!E15*Main!$B$5)</f>
-        <v>2.6724137931034484</v>
+        <v>1.3362068965517242</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Qc, Summer, S1'!F15*Main!$B$5)</f>
-        <v>2.6724137931034484</v>
+        <v>1.3362068965517242</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Qc, Summer, S1'!G15*Main!$B$5)</f>
-        <v>2.5610632183908044</v>
+        <v>1.2805316091954022</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Qc, Summer, S1'!H15*Main!$B$5)</f>
-        <v>2.2826867816091956</v>
+        <v>1.1413433908045978</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Qc, Summer, S1'!I15*Main!$B$5)</f>
-        <v>2.171336206896552</v>
+        <v>1.085668103448276</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Qc, Summer, S1'!J15*Main!$B$5)</f>
-        <v>1.6702586206896555</v>
+        <v>0.83512931034482774</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Qc, Summer, S1'!K15*Main!$B$5)</f>
-        <v>1.1691810344827587</v>
+        <v>0.58459051724137934</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Qc, Summer, S1'!L15*Main!$B$5)</f>
-        <v>1.2805316091954024</v>
+        <v>0.64026580459770122</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Qc, Summer, S1'!M15*Main!$B$5)</f>
-        <v>1.5589080459770117</v>
+        <v>0.77945402298850586</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Qc, Summer, S1'!N15*Main!$B$5)</f>
-        <v>1.1135057471264369</v>
+        <v>0.55675287356321845</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Qc, Summer, S1'!O15*Main!$B$5)</f>
-        <v>1.5589080459770117</v>
+        <v>0.77945402298850586</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Qc, Summer, S1'!P15*Main!$B$5)</f>
-        <v>1.7816091954022992</v>
+        <v>0.89080459770114961</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Qc, Summer, S1'!Q15*Main!$B$5)</f>
-        <v>1.7816091954022992</v>
+        <v>0.89080459770114961</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Qc, Summer, S1'!R15*Main!$B$5)</f>
-        <v>1.7816091954022992</v>
+        <v>0.89080459770114961</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Qc, Summer, S1'!S15*Main!$B$5)</f>
-        <v>1.7259339080459772</v>
+        <v>0.86296695402298862</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Qc, Summer, S1'!T15*Main!$B$5)</f>
-        <v>1.6145833333333337</v>
+        <v>0.80729166666666685</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Qc, Summer, S1'!U15*Main!$B$5)</f>
-        <v>2.0043103448275863</v>
+        <v>1.0021551724137931</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Qc, Summer, S1'!V15*Main!$B$5)</f>
-        <v>2.1156609195402303</v>
+        <v>1.0578304597701151</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Qc, Summer, S1'!W15*Main!$B$5)</f>
-        <v>2.3940373563218396</v>
+        <v>1.1970186781609198</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Qc, Summer, S1'!X15*Main!$B$5)</f>
-        <v>2.2270114942528738</v>
+        <v>1.1135057471264369</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Qc, Summer, S1'!Y15*Main!$B$5)</f>
-        <v>2.2826867816091956</v>
+        <v>1.1413433908045978</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -33216,99 +33216,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
-        <v>2.5354525862068962</v>
+        <v>1.2677262931034481</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
-        <v>2.4803340517241379</v>
+        <v>1.240167025862069</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
-        <v>2.6167385057471262</v>
+        <v>1.3083692528735631</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
-        <v>2.6456896551724141</v>
+        <v>1.322844827586207</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
-        <v>2.6456896551724141</v>
+        <v>1.322844827586207</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
-        <v>2.5866738505747122</v>
+        <v>1.2933369252873561</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
-        <v>2.2370330459770118</v>
+        <v>1.1185165229885059</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
-        <v>2.1930495689655176</v>
+        <v>1.0965247844827588</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
-        <v>1.6535560344827591</v>
+        <v>0.82677801724137956</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
-        <v>1.1691810344827587</v>
+        <v>0.58459051724137934</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
-        <v>1.2549209770114944</v>
+        <v>0.6274604885057472</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
-        <v>1.5277298850574716</v>
+        <v>0.76386494252873582</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
-        <v>1.0912356321839083</v>
+        <v>0.54561781609195414</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
-        <v>1.5277298850574716</v>
+        <v>0.76386494252873582</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
-        <v>1.8172413793103452</v>
+        <v>0.90862068965517262</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
-        <v>1.8172413793103452</v>
+        <v>0.90862068965517262</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
-        <v>1.7637931034482763</v>
+        <v>0.88189655172413817</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
-        <v>1.7604525862068965</v>
+        <v>0.88022629310344824</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
-        <v>1.5984375000000002</v>
+        <v>0.79921875000000009</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
-        <v>2.0043103448275863</v>
+        <v>1.0021551724137931</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
-        <v>2.0733477011494257</v>
+        <v>1.0366738505747128</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
-        <v>2.3461566091954031</v>
+        <v>1.1730783045977016</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
-        <v>2.2270114942528743</v>
+        <v>1.1135057471264371</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
-        <v>2.2598599137931039</v>
+        <v>1.129929956896552</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -34823,99 +34823,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
-        <v>2.5098419540229884</v>
+        <v>1.2549209770114942</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
-        <v>2.4803340517241379</v>
+        <v>1.240167025862069</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
-        <v>2.5644037356321836</v>
+        <v>1.2822018678160918</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
-        <v>2.6991379310344827</v>
+        <v>1.3495689655172414</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
-        <v>2.7258620689655175</v>
+        <v>1.3629310344827588</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
-        <v>2.5610632183908044</v>
+        <v>1.2805316091954022</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
-        <v>2.3055136494252877</v>
+        <v>1.1527568247126438</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
-        <v>2.1279094827586209</v>
+        <v>1.0639547413793105</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
-        <v>1.6535560344827591</v>
+        <v>0.82677801724137956</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
-        <v>1.1925646551724138</v>
+        <v>0.59628232758620692</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
-        <v>1.2549209770114944</v>
+        <v>0.6274604885057472</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
-        <v>1.590086206896552</v>
+        <v>0.795043103448276</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
-        <v>1.0912356321839083</v>
+        <v>0.54561781609195414</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
-        <v>1.5277298850574716</v>
+        <v>0.76386494252873582</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
-        <v>1.7994252873563223</v>
+        <v>0.89971264367816117</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
-        <v>1.8172413793103452</v>
+        <v>0.90862068965517262</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
-        <v>1.7816091954022992</v>
+        <v>0.89080459770114961</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
-        <v>1.7259339080459775</v>
+        <v>0.86296695402298873</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
-        <v>1.5984375000000002</v>
+        <v>0.79921875000000009</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
-        <v>1.9642241379310346</v>
+        <v>0.98211206896551728</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
-        <v>2.1368175287356324</v>
+        <v>1.0684087643678162</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
-        <v>2.4419181034482764</v>
+        <v>1.2209590517241382</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
-        <v>2.1824712643678166</v>
+        <v>1.0912356321839083</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
-        <v>2.3283405172413798</v>
+        <v>1.1641702586206899</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -44504,99 +44504,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Pc, Winter, S1'!B15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.5741668396410033</v>
+        <v>1.3930403163722258</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Pc, Winter, S1'!C15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.4391630818580428</v>
+        <v>1.3290729202393661</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Pc, Winter, S1'!D15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.3501907818635193</v>
+        <v>1.2731384943800355</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Pc, Winter, S1'!E15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.3624531253691696</v>
+        <v>1.2741575971673436</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Pc, Winter, S1'!F15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.3470623152864256</v>
+        <v>1.2496690886776955</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Pc, Winter, S1'!G15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.555849334522319</v>
+        <v>1.3425453569163319</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Pc, Winter, S1'!H15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.270599014191697</v>
+        <v>1.7143253691648142</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Pc, Winter, S1'!I15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.6451607998923587</v>
+        <v>1.8363045378772138</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Pc, Winter, S1'!J15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.7704701638255744</v>
+        <v>1.8973040474300285</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Pc, Winter, S1'!K15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.7882847986378705</v>
+        <v>1.911737226905142</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Pc, Winter, S1'!L15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.8343015692913527</v>
+        <v>1.9275128536111936</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Pc, Winter, S1'!M15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.8424804328421285</v>
+        <v>1.9341884922831332</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Pc, Winter, S1'!N15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.7760591449881216</v>
+        <v>1.9086588828388884</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Pc, Winter, S1'!O15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.6918508406538972</v>
+        <v>1.8839340410166037</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Pc, Winter, S1'!P15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.4612065008795536</v>
+        <v>1.771154974577708</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Pc, Winter, S1'!Q15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.4645583854481328</v>
+        <v>1.772158503068894</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Pc, Winter, S1'!R15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.6420838218745137</v>
+        <v>1.8434126005924294</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Pc, Winter, S1'!S15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>4.1178923687765163</v>
+        <v>2.1045151499054993</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Pc, Winter, S1'!T15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.8869261910849477</v>
+        <v>1.9702044748528187</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Pc, Winter, S1'!U15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.6941981218459694</v>
+        <v>1.8659007850609157</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Pc, Winter, S1'!V15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.6501086677563737</v>
+        <v>1.853606058016118</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Pc, Winter, S1'!W15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.42859139346151</v>
+        <v>1.731942248454893</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Pc, Winter, S1'!X15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.134435333801366</v>
+        <v>1.6477607703489587</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Pc, Winter, S1'!Y15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.9193340464906532</v>
+        <v>1.5567618508315335</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -46111,99 +46111,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Pc, Winter, S2'!B15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.5741668396410033</v>
+        <v>1.3930403163722258</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Pc, Winter, S2'!C15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.48356668832279</v>
+        <v>1.3512747234717397</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Pc, Winter, S2'!D15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.3501907818635193</v>
+        <v>1.2731384943800355</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Pc, Winter, S2'!E15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.4059849464972434</v>
+        <v>1.2959235077313802</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Pc, Winter, S2'!F15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.3690101798186007</v>
+        <v>1.2606430209437831</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Pc, Winter, S2'!G15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.5801154140744385</v>
+        <v>1.3546783966923917</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Pc, Winter, S2'!H15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.3328499599927728</v>
+        <v>1.7454508420653521</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Pc, Winter, S2'!I15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.7175150503729641</v>
+        <v>1.8724816631175165</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Pc, Winter, S2'!J15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.7704701638255744</v>
+        <v>1.8973040474300285</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Pc, Winter, S2'!K15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.7132228957685616</v>
+        <v>1.8742062754704876</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Pc, Winter, S2'!L15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.8343015692913527</v>
+        <v>1.9275128536111936</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Pc, Winter, S2'!M15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.8806462716533083</v>
+        <v>1.9532714116887231</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Pc, Winter, S2'!N15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.7760591449881216</v>
+        <v>1.9086588828388884</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Pc, Winter, S2'!O15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.6195341686684048</v>
+        <v>1.8477757050238575</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Pc, Winter, S2'!P15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.4274054703535164</v>
+        <v>1.7542544593146894</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Pc, Winter, S2'!Q15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.4645583854481328</v>
+        <v>1.772158503068894</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Pc, Winter, S2'!R15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.5701369730232297</v>
+        <v>1.8074391761667874</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Pc, Winter, S2'!S15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>4.0776248243990958</v>
+        <v>2.084381377716789</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Pc, Winter, S2'!T15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.8485917567603054</v>
+        <v>1.9510372576904975</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Pc, Winter, S2'!U15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.7673300153173712</v>
+        <v>1.9024667317966166</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Pc, Winter, S2'!V15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.6141786155615687</v>
+        <v>1.8356410319187155</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Pc, Winter, S2'!W15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.42859139346151</v>
+        <v>1.731942248454893</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Pc, Winter, S2'!X15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.0749683512632693</v>
+        <v>1.6180272790799106</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Pc, Winter, S2'!Y15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.8920826025774709</v>
+        <v>1.5431361288749423</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -47718,99 +47718,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Pc, Winter, S3'!B15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.6214119005717547</v>
+        <v>1.4166628468376015</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Pc, Winter, S3'!C15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.4169612786256698</v>
+        <v>1.3179720186231796</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Pc, Winter, S3'!D15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.3717318276131891</v>
+        <v>1.2839090172548704</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Pc, Winter, S3'!E15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.3406872148051336</v>
+        <v>1.2632746418853253</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Pc, Winter, S3'!F15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.3470623152864256</v>
+        <v>1.2496690886776955</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Pc, Winter, S3'!G15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.5315832549701995</v>
+        <v>1.3304123171402722</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Pc, Winter, S3'!H15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.2705990141916965</v>
+        <v>1.7143253691648139</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Pc, Winter, S3'!I15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.5728065494117529</v>
+        <v>1.8001274126369109</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Pc, Winter, S3'!J15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.6955435191697528</v>
+        <v>1.8598407251021176</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Pc, Winter, S3'!K15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.7132228957685616</v>
+        <v>1.8742062754704876</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Pc, Winter, S3'!L15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.8343015692913527</v>
+        <v>1.9275128536111936</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Pc, Winter, S3'!M15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.9188121104644877</v>
+        <v>1.9723543310943128</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Pc, Winter, S3'!N15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.7760591449881216</v>
+        <v>1.9086588828388884</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Pc, Winter, S3'!O15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.6195341686684048</v>
+        <v>1.8477757050238575</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Pc, Winter, S3'!P15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.4274054703535164</v>
+        <v>1.7542544593146894</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Pc, Winter, S3'!Q15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.430710387800548</v>
+        <v>1.7552345042451016</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Pc, Winter, S3'!R15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.6420838218745137</v>
+        <v>1.8434126005924294</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Pc, Winter, S3'!S15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>4.1984274575313565</v>
+        <v>2.1447826942829193</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Pc, Winter, S3'!T15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.8485917567603054</v>
+        <v>1.9510372576904975</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Pc, Winter, S3'!U15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.6941981218459694</v>
+        <v>1.8659007850609157</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Pc, Winter, S3'!V15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.6141786155615687</v>
+        <v>1.8356410319187155</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Pc, Winter, S3'!W15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.4964573592617749</v>
+        <v>1.7658752313550254</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Pc, Winter, S3'!X15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.1939023163394618</v>
+        <v>1.6774942616180069</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Pc, Winter, S3'!Y15*Main!$B$5)+(VLOOKUP($A15,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.8648311586642881</v>
+        <v>1.5295104069183509</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -47923,7 +47923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB4B167-8B70-40F2-9EAB-61B755D5CB36}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
@@ -49325,99 +49325,99 @@
       </c>
       <c r="B15" s="4">
         <f>('[1]Qc, Winter, S1'!B15*Main!$B$5)</f>
-        <v>2.5034357132991216</v>
+        <v>1.2517178566495608</v>
       </c>
       <c r="C15" s="4">
         <f>('[1]Qc, Winter, S1'!C15*Main!$B$5)</f>
-        <v>2.5624568949020379</v>
+        <v>1.2812284474510189</v>
       </c>
       <c r="D15" s="4">
         <f>('[1]Qc, Winter, S1'!D15*Main!$B$5)</f>
-        <v>2.5937918527445842</v>
+        <v>1.2968959263722921</v>
       </c>
       <c r="E15" s="4">
         <f>('[1]Qc, Winter, S1'!E15*Main!$B$5)</f>
-        <v>2.6090566019788963</v>
+        <v>1.3045283009894482</v>
       </c>
       <c r="F15" s="4">
         <f>('[1]Qc, Winter, S1'!F15*Main!$B$5)</f>
-        <v>2.5625061641939775</v>
+        <v>1.2812530820969887</v>
       </c>
       <c r="G15" s="4">
         <f>('[1]Qc, Winter, S1'!G15*Main!$B$5)</f>
-        <v>2.4922709175484821</v>
+        <v>1.246135458774241</v>
       </c>
       <c r="H15" s="4">
         <f>('[1]Qc, Winter, S1'!H15*Main!$B$5)</f>
-        <v>2.2087245832819788</v>
+        <v>1.1043622916409894</v>
       </c>
       <c r="I15" s="4">
         <f>('[1]Qc, Winter, S1'!I15*Main!$B$5)</f>
-        <v>1.7557305517829151</v>
+        <v>0.87786527589145757</v>
       </c>
       <c r="J15" s="4">
         <f>('[1]Qc, Winter, S1'!J15*Main!$B$5)</f>
-        <v>1.4206628823719538</v>
+        <v>0.71033144118597691</v>
       </c>
       <c r="K15" s="4">
         <f>('[1]Qc, Winter, S1'!K15*Main!$B$5)</f>
-        <v>1.2238838250133723</v>
+        <v>0.61194191250668617</v>
       </c>
       <c r="L15" s="4">
         <f>('[1]Qc, Winter, S1'!L15*Main!$B$5)</f>
-        <v>1.6082550877695923</v>
+        <v>0.80412754388479613</v>
       </c>
       <c r="M15" s="4">
         <f>('[1]Qc, Winter, S1'!M15*Main!$B$5)</f>
-        <v>1.5864874156611923</v>
+        <v>0.79324370783059617</v>
       </c>
       <c r="N15" s="4">
         <f>('[1]Qc, Winter, S1'!N15*Main!$B$5)</f>
-        <v>1.3964370467929277</v>
+        <v>0.69821852339646384</v>
       </c>
       <c r="O15" s="4">
         <f>('[1]Qc, Winter, S1'!O15*Main!$B$5)</f>
-        <v>1.1882783421511349</v>
+        <v>0.59413917107556746</v>
       </c>
       <c r="P15" s="4">
         <f>('[1]Qc, Winter, S1'!P15*Main!$B$5)</f>
-        <v>1.6008456722900104</v>
+        <v>0.8004228361450052</v>
       </c>
       <c r="Q15" s="4">
         <f>('[1]Qc, Winter, S1'!Q15*Main!$B$5)</f>
-        <v>1.9352784538630683</v>
+        <v>0.96763922693153415</v>
       </c>
       <c r="R15" s="4">
         <f>('[1]Qc, Winter, S1'!R15*Main!$B$5)</f>
-        <v>1.8556745578059923</v>
+        <v>0.92783727890299617</v>
       </c>
       <c r="S15" s="4">
         <f>('[1]Qc, Winter, S1'!S15*Main!$B$5)</f>
-        <v>1.9699213145467158</v>
+        <v>0.98496065727335791</v>
       </c>
       <c r="T15" s="4">
         <f>('[1]Qc, Winter, S1'!T15*Main!$B$5)</f>
-        <v>2.0361423612229905</v>
+        <v>1.0180711806114953</v>
       </c>
       <c r="U15" s="4">
         <f>('[1]Qc, Winter, S1'!U15*Main!$B$5)</f>
-        <v>2.2102877918926915</v>
+        <v>1.1051438959463458</v>
       </c>
       <c r="V15" s="4">
         <f>('[1]Qc, Winter, S1'!V15*Main!$B$5)</f>
-        <v>2.2217407194518888</v>
+        <v>1.1108703597259444</v>
       </c>
       <c r="W15" s="4">
         <f>('[1]Qc, Winter, S1'!W15*Main!$B$5)</f>
-        <v>2.3936169562137186</v>
+        <v>1.1968084781068593</v>
       </c>
       <c r="X15" s="4">
         <f>('[1]Qc, Winter, S1'!X15*Main!$B$5)</f>
-        <v>2.5016913308996949</v>
+        <v>1.2508456654498474</v>
       </c>
       <c r="Y15" s="4">
         <f>('[1]Qc, Winter, S1'!Y15*Main!$B$5)</f>
-        <v>2.4764249154016684</v>
+        <v>1.2382124577008342</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee18/ieee18_2020.xlsx
+++ b/data/IEEE_9/ieee18/ieee18_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006C78CB-9BBE-4CE1-B05F-B27B761239EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA5712-97AC-438F-8F16-DF1FCD8EA58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1200" windowWidth="21600" windowHeight="12660" firstSheet="24" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="1200" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24751,8 +24751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38242,7 +38242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B868C0-111B-47C9-B784-BA76718F02D8}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:Y7"/>
     </sheetView>
   </sheetViews>

--- a/data/IEEE_9/ieee18/ieee18_2020.xlsx
+++ b/data/IEEE_9/ieee18/ieee18_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA5712-97AC-438F-8F16-DF1FCD8EA58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFA5D88-6DE4-4C28-BE7C-030C2F8CCED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2025" yWindow="1200" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,12 +241,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.01</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.05</v>
+            <v>7.4999999999999997E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -24752,7 +24752,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE_9/ieee18/ieee18_2020.xlsx
+++ b/data/IEEE_9/ieee18/ieee18_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFA5D88-6DE4-4C28-BE7C-030C2F8CCED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41C34A5-A164-41F3-8F5C-7923C81CA1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2025" yWindow="1200" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>3.9201792081923739E-5</v>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21564,55 +21564,55 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>2.3837889732102033E-2</v>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0.47225598884520431</v>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>1.2322523315351557</v>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>1.537790298985096</v>
+        <v>6.151161195940384</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>1.7080284813020019</v>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>1.7397035293041969</v>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>1.707758068940294</v>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>1.4581834598153056</v>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.96360805065374411</v>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0.23542076209198132</v>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.8400841181311146E-3</v>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.5840724147389595E-4</v>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.2120554082472341E-4</v>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21645,7 +21645,7 @@
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>3.9201792081923739E-5</v>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21665,55 +21665,55 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>2.3837889732102033E-2</v>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0.47225598884520431</v>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>1.2322523315351557</v>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>1.537790298985096</v>
+        <v>6.151161195940384</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>1.7080284813020019</v>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>1.7397035293041969</v>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>1.707758068940294</v>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>1.4581834598153056</v>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.96360805065374411</v>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0.23542076209198132</v>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.8400841181311146E-3</v>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.5840724147389595E-4</v>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.2120554082472341E-4</v>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -22214,7 +22214,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>6.8135245901639339E-5</v>
+        <v>2.7254098360655736E-4</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22238,51 +22238,51 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>1.9100102459016392E-2</v>
+        <v>7.6400409836065566E-2</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0.37593442622950812</v>
+        <v>1.5037377049180325</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.89429303278688532</v>
+        <v>3.5771721311475413</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>1.2034520491803278</v>
+        <v>4.8138081967213111</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>1.4759901639344262</v>
+        <v>5.9039606557377047</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>1.7528545081967213</v>
+        <v>7.0114180327868851</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>1.462795594262295</v>
+        <v>5.85118237704918</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>1.0748621926229509</v>
+        <v>4.2994487704918036</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0.51562459016393436</v>
+        <v>2.0624983606557374</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0.10772182377049178</v>
+        <v>0.4308872950819671</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>6.8852459016393425E-4</v>
+        <v>2.754098360655737E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.0122950819672128E-4</v>
+        <v>1.2049180327868851E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>6.8135245901639339E-5</v>
+        <v>2.7254098360655736E-4</v>
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22339,51 +22339,51 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>1.9100102459016392E-2</v>
+        <v>7.6400409836065566E-2</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0.37593442622950812</v>
+        <v>1.5037377049180325</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.89429303278688532</v>
+        <v>3.5771721311475413</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>1.2034520491803278</v>
+        <v>4.8138081967213111</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>1.4759901639344262</v>
+        <v>5.9039606557377047</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>1.7528545081967213</v>
+        <v>7.0114180327868851</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>1.462795594262295</v>
+        <v>5.85118237704918</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>1.0748621926229509</v>
+        <v>4.2994487704918036</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0.51562459016393436</v>
+        <v>2.0624983606557374</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0.10772182377049178</v>
+        <v>0.4308872950819671</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>6.8852459016393425E-4</v>
+        <v>2.754098360655737E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.0122950819672128E-4</v>
+        <v>1.2049180327868851E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22912,47 +22912,47 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>2.0651417362692985E-2</v>
+        <v>8.260566945077194E-2</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0.45094556757782839</v>
+        <v>1.8037822703113136</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>1.0498865002531004</v>
+        <v>4.1995460010124015</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>1.5140423310554292</v>
+        <v>6.0561693242217167</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>1.558620048721842</v>
+        <v>6.234480194887368</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>1.4799342729688683</v>
+        <v>5.919737091875473</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>1.1586884649455833</v>
+        <v>4.6347538597823332</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.89255315110098699</v>
+        <v>3.5702126044039479</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0.37872374082510757</v>
+        <v>1.5148949633004303</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>6.6862424069855722E-2</v>
+        <v>0.26744969627942289</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0851683118197924E-4</v>
+        <v>4.3406732472791698E-4</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -23013,47 +23013,47 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>2.0651417362692985E-2</v>
+        <v>8.260566945077194E-2</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0.45094556757782839</v>
+        <v>1.8037822703113136</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>1.0498865002531004</v>
+        <v>4.1995460010124015</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>1.5140423310554292</v>
+        <v>6.0561693242217167</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>1.558620048721842</v>
+        <v>6.234480194887368</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>1.4799342729688683</v>
+        <v>5.919737091875473</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>1.1586884649455833</v>
+        <v>4.6347538597823332</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.89255315110098699</v>
+        <v>3.5702126044039479</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0.37872374082510757</v>
+        <v>1.5148949633004303</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>6.6862424069855722E-2</v>
+        <v>0.26744969627942289</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0851683118197924E-4</v>
+        <v>4.3406732472791698E-4</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24752,7 +24752,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24809,7 +24809,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -24820,7 +24820,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -38719,7 +38719,7 @@
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>4.9394258023223916E-5</v>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38739,55 +38739,55 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>2.8843846575843463E-2</v>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.59976510583340947</v>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>1.5896055076803508</v>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>1.9991273886806251</v>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>2.0667144623754221</v>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>2.2616145880954557</v>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>2.2030079089329795</v>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>1.8518929939654381</v>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>1.1852379023041053</v>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0.29663016023589645</v>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.3185059888452047E-3</v>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.9642497942763099E-4</v>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.4665870439791533E-4</v>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -38820,7 +38820,7 @@
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>4.9394258023223916E-5</v>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38840,55 +38840,55 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>2.8843846575843463E-2</v>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.59976510583340947</v>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>1.5896055076803508</v>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>1.9991273886806251</v>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>2.0667144623754221</v>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>2.2616145880954557</v>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>2.2030079089329795</v>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>1.8518929939654381</v>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>1.1852379023041053</v>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0.29663016023589645</v>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.3185059888452047E-3</v>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.9642497942763099E-4</v>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.4665870439791533E-4</v>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -39470,7 +39470,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>8.6531762295081972E-5</v>
+        <v>3.4612704918032789E-4</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39494,51 +39494,51 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>2.483013319672131E-2</v>
+        <v>9.9320532786885241E-2</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0.48495540983606555</v>
+        <v>1.9398216393442622</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>1.153638012295082</v>
+        <v>4.614552049180328</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>1.5283841024590163</v>
+        <v>6.1135364098360654</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>1.9187872131147541</v>
+        <v>7.6751488524590163</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>2.2787108606557376</v>
+        <v>9.1148434426229503</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>1.9016342725409836</v>
+        <v>7.6065370901639344</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>1.311331875</v>
+        <v>5.2453275000000001</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.65484322950819673</v>
+        <v>2.6193729180327869</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0.13788393442622948</v>
+        <v>0.55153573770491793</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>8.331147540983604E-4</v>
+        <v>3.3324590163934416E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>3.6749999999999999E-4</v>
+        <v>1.47E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -39571,7 +39571,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>8.6531762295081972E-5</v>
+        <v>3.4612704918032789E-4</v>
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39595,51 +39595,51 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>2.483013319672131E-2</v>
+        <v>9.9320532786885241E-2</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0.48495540983606555</v>
+        <v>1.9398216393442622</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>1.153638012295082</v>
+        <v>4.614552049180328</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>1.5283841024590163</v>
+        <v>6.1135364098360654</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>1.9187872131147541</v>
+        <v>7.6751488524590163</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>2.2787108606557376</v>
+        <v>9.1148434426229503</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>1.9016342725409836</v>
+        <v>7.6065370901639344</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>1.311331875</v>
+        <v>5.2453275000000001</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.65484322950819673</v>
+        <v>2.6193729180327869</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0.13788393442622948</v>
+        <v>0.55153573770491793</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>8.331147540983604E-4</v>
+        <v>3.3324590163934416E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>3.6749999999999999E-4</v>
+        <v>1.47E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -40168,47 +40168,47 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>2.5607757529739303E-2</v>
+        <v>0.10243103011895721</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0.55466304812072886</v>
+        <v>2.2186521924829155</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>1.3018592603138444</v>
+        <v>5.2074370412553774</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>1.9228337604403949</v>
+        <v>7.6913350417615796</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>2.0106198628511764</v>
+        <v>8.0424794514047058</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>1.7759211275626419</v>
+        <v>7.1036845102505675</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>1.4251868118830675</v>
+        <v>5.70074724753227</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>1.1424680334092634</v>
+        <v>4.5698721336370536</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0.48855362566438876</v>
+        <v>1.954214502657555</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>8.6252527050113881E-2</v>
+        <v>0.34501010820045552</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.4107188053657304E-4</v>
+        <v>5.6428752214629215E-4</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -40269,47 +40269,47 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>2.5607757529739303E-2</v>
+        <v>0.10243103011895721</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0.55466304812072886</v>
+        <v>2.2186521924829155</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>1.3018592603138444</v>
+        <v>5.2074370412553774</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>1.9228337604403949</v>
+        <v>7.6913350417615796</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>2.0106198628511764</v>
+        <v>8.0424794514047058</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>1.7759211275626419</v>
+        <v>7.1036845102505675</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>1.4251868118830675</v>
+        <v>5.70074724753227</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>1.1424680334092634</v>
+        <v>4.5698721336370536</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0.48855362566438876</v>
+        <v>1.954214502657555</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>8.6252527050113881E-2</v>
+        <v>0.34501010820045552</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.4107188053657304E-4</v>
+        <v>5.6428752214629215E-4</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>

--- a/data/IEEE_9/ieee18/ieee18_2020.xlsx
+++ b/data/IEEE_9/ieee18/ieee18_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E329BC68-FDDB-408B-B3FE-907AF0B666B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E784A9FD-068B-40B0-9FD3-59EEE20A1BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2145" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24660" yWindow="3360" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -241,12 +241,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.02</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>7.4999999999999997E-2</v>
+            <v>0.05</v>
           </cell>
         </row>
       </sheetData>
@@ -14549,8 +14549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42561,7 +42561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90792FFD-F8B0-4F11-BB33-84C7B9CBA7C9}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
